--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -804,19 +804,19 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H3" t="n">
         <v>4.75</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
         <v>1.83</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
         <v>9</v>
@@ -1001,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1010,19 +1010,19 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK3" t="n">
         <v>101</v>
       </c>
       <c r="AL3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -1037,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1049,25 +1049,25 @@
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1117,13 +1117,13 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
         <v>2.3</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1246,7 +1246,7 @@
         <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA4" t="n">
         <v>41</v>
@@ -1335,10 +1335,10 @@
         <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>29</v>
@@ -1622,7 +1622,7 @@
         <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.25</v>
@@ -1908,7 +1908,7 @@
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,7 +1920,7 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>7</v>
@@ -1953,7 +1953,7 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT8" t="n">
         <v>3.75</v>
@@ -2260,7 +2260,7 @@
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2272,10 +2272,10 @@
         <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2287,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2409,10 +2409,10 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
         <v>2.2</v>
@@ -2421,10 +2421,10 @@
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>2.63</v>
@@ -2451,7 +2451,7 @@
         <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>9</v>
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>21</v>
@@ -2502,7 +2502,7 @@
         <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
@@ -2520,7 +2520,7 @@
         <v>51</v>
       </c>
       <c r="AZ11" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA11" t="n">
         <v>351</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
@@ -2603,22 +2603,22 @@
         <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2708,7 +2708,7 @@
         <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
         <v>501</v>
@@ -2927,19 +2927,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="K14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
         <v>15</v>
@@ -2948,19 +2948,19 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="S14" t="n">
         <v>1.18</v>
@@ -2969,10 +2969,10 @@
         <v>4.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>11</v>
@@ -2981,7 +2981,7 @@
         <v>7</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
         <v>6.5</v>
@@ -2993,18 +2993,20 @@
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="n">
         <v>101</v>
       </c>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>101</v>
+      </c>
       <c r="AH14" t="n">
         <v>41</v>
       </c>
@@ -3027,13 +3029,13 @@
         <v>3.25</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AP14" t="n">
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR14" t="n">
         <v>29</v>
@@ -3045,16 +3047,16 @@
         <v>4.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AY14" t="n">
         <v>51</v>
@@ -3101,13 +3103,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -3116,13 +3118,13 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.25</v>
@@ -3131,25 +3133,25 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -3167,7 +3169,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3179,10 +3181,10 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3191,13 +3193,13 @@
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
         <v>4.75</v>
@@ -3218,7 +3220,7 @@
         <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>7.5</v>
@@ -3230,16 +3232,16 @@
         <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3279,22 +3281,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -3315,10 +3317,10 @@
         <v>1.67</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
         <v>1.91</v>
@@ -3327,7 +3329,7 @@
         <v>1.91</v>
       </c>
       <c r="W16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
@@ -3336,10 +3338,10 @@
         <v>10</v>
       </c>
       <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
         <v>23</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>21</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -3360,16 +3362,16 @@
         <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
@@ -3390,25 +3392,25 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>26</v>
@@ -3461,28 +3463,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
         <v>1.29</v>
@@ -3491,10 +3493,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3527,7 +3529,7 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3545,13 +3547,13 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3575,13 +3577,13 @@
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3643,19 +3645,19 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
         <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
@@ -3664,7 +3666,7 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>1.36</v>
@@ -3715,7 +3717,7 @@
         <v>6.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>67</v>
@@ -3846,7 +3848,7 @@
         <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.4</v>
@@ -4189,13 +4191,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
@@ -4219,10 +4221,10 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4273,7 +4275,7 @@
         <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
@@ -4392,7 +4394,7 @@
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4553,28 +4555,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K23" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -4589,10 +4591,10 @@
         <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U23" t="n">
         <v>2.5</v>
@@ -4610,7 +4612,7 @@
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
@@ -4619,13 +4621,13 @@
         <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF23" t="n">
         <v>101</v>
@@ -4637,13 +4639,13 @@
         <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL23" t="n">
         <v>51</v>
@@ -4652,16 +4654,16 @@
         <v>67</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR23" t="n">
         <v>67</v>
@@ -4670,28 +4672,28 @@
         <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ23" t="n">
         <v>151</v>
       </c>
       <c r="BA23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB23" t="inlineStr"/>
       <c r="BC23" t="inlineStr"/>
@@ -4750,7 +4752,7 @@
         <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4931,16 +4933,16 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5293,10 +5295,10 @@
         <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
         <v>1.53</v>
@@ -5475,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5991,16 +5993,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I31" t="n">
         <v>3.1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
@@ -6009,10 +6011,10 @@
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -6039,13 +6041,13 @@
         <v>1.95</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X31" t="n">
         <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z31" t="n">
         <v>21</v>
@@ -6078,7 +6080,7 @@
         <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>34</v>
@@ -6093,7 +6095,7 @@
         <v>4.33</v>
       </c>
       <c r="AO31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -6120,7 +6122,7 @@
         <v>5</v>
       </c>
       <c r="AX31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>26</v>
@@ -6173,7 +6175,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H32" t="n">
         <v>3.9</v>
@@ -6203,10 +6205,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6236,7 +6238,7 @@
         <v>13</v>
       </c>
       <c r="AB32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC32" t="n">
         <v>12</v>
@@ -6260,7 +6262,7 @@
         <v>26</v>
       </c>
       <c r="AJ32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="n">
         <v>51</v>
@@ -6275,7 +6277,7 @@
         <v>3.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
@@ -6293,7 +6295,7 @@
         <v>3</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
@@ -6302,7 +6304,7 @@
         <v>7</v>
       </c>
       <c r="AX32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY32" t="n">
         <v>34</v>
@@ -6314,7 +6316,7 @@
         <v>101</v>
       </c>
       <c r="BB32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC32" t="n">
         <v>126</v>
@@ -6567,10 +6569,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6737,10 +6739,10 @@
         <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
         <v>1.25</v>
@@ -6749,10 +6751,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6897,13 +6899,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H36" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
@@ -6912,13 +6914,13 @@
         <v>2.5</v>
       </c>
       <c r="L36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M36" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O36" t="n">
         <v>1.17</v>
@@ -6927,10 +6929,10 @@
         <v>5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R36" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S36" t="n">
         <v>1.29</v>
@@ -6939,10 +6941,10 @@
         <v>3.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
@@ -6963,7 +6965,7 @@
         <v>34</v>
       </c>
       <c r="AC36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD36" t="n">
         <v>9</v>
@@ -7107,10 +7109,10 @@
         <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R37" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7261,10 +7263,10 @@
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J38" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K38" t="n">
         <v>2.3</v>
@@ -7276,7 +7278,7 @@
         <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O38" t="n">
         <v>1.25</v>
@@ -7285,10 +7287,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7315,7 +7317,7 @@
         <v>11</v>
       </c>
       <c r="AA38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB38" t="n">
         <v>26</v>
@@ -7327,7 +7329,7 @@
         <v>8</v>
       </c>
       <c r="AE38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
@@ -7336,10 +7338,10 @@
         <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
         <v>19</v>
@@ -7369,7 +7371,7 @@
         <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
         <v>3</v>
@@ -7611,148 +7613,148 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="H40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I40" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="J40" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="L40" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>13.4</v>
       </c>
       <c r="O40" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="P40" t="n">
-        <v>5.35</v>
+        <v>4.4</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="T40" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="U40" t="n">
-        <v>1.71</v>
+        <v>1.9</v>
       </c>
       <c r="V40" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="W40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
         <v>37</v>
       </c>
       <c r="Y40" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z40" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA40" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AB40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC40" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AE40" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AF40" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="AG40" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AH40" t="n">
-        <v>8.25</v>
+        <v>6.9</v>
       </c>
       <c r="AI40" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="AJ40" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AK40" t="n">
         <v>7.4</v>
       </c>
-      <c r="AK40" t="n">
-        <v>8</v>
-      </c>
       <c r="AL40" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM40" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AN40" t="n">
         <v>8.25</v>
       </c>
       <c r="AO40" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AP40" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AQ40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AR40" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AS40" t="n">
-        <v>350</v>
+        <v>500</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AU40" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AV40" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AW40" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX40" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AY40" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AZ40" t="n">
         <v>15</v>
       </c>
       <c r="BA40" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BB40" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
@@ -7789,148 +7791,148 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="H41" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I41" t="n">
-        <v>2.85</v>
+        <v>3.15</v>
       </c>
       <c r="J41" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="M41" t="n">
         <v>1.01</v>
       </c>
       <c r="N41" t="n">
-        <v>12.3</v>
+        <v>8.1</v>
       </c>
       <c r="O41" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="P41" t="n">
-        <v>3.76</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="T41" t="n">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
-        <v>2.38</v>
+        <v>2.23</v>
       </c>
       <c r="W41" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="X41" t="n">
-        <v>9.75</v>
+        <v>8.75</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="Z41" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AA41" t="n">
         <v>12.5</v>
       </c>
       <c r="AB41" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP41" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF41" t="n">
+      <c r="AQ41" t="n">
         <v>35</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AR41" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS41" t="n">
         <v>200</v>
       </c>
-      <c r="AH41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AP41" t="n">
+      <c r="AT41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX41" t="n">
         <v>16.5</v>
       </c>
-      <c r="AQ41" t="n">
-        <v>37</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW41" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>15</v>
-      </c>
       <c r="AY41" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ41" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BA41" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB41" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -7967,109 +7969,109 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="H42" t="n">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="I42" t="n">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="J42" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K42" t="n">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="L42" t="n">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N42" t="n">
-        <v>13.9</v>
+        <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="P42" t="n">
-        <v>4.75</v>
+        <v>4.05</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="R42" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="S42" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="T42" t="n">
-        <v>3.6</v>
+        <v>3.26</v>
       </c>
       <c r="U42" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>2.54</v>
+        <v>2.34</v>
       </c>
       <c r="W42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X42" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Z42" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB42" t="n">
         <v>22</v>
       </c>
       <c r="AC42" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AF42" t="n">
         <v>32</v>
       </c>
       <c r="AG42" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AI42" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AJ42" t="n">
         <v>7.3</v>
       </c>
       <c r="AK42" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AL42" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AM42" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="AO42" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AP42" t="n">
         <v>21</v>
@@ -8081,34 +8083,34 @@
         <v>100</v>
       </c>
       <c r="AS42" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW42" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AX42" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AY42" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ42" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="BA42" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="BB42" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC42" t="n">
         <v>450</v>
@@ -8165,10 +8167,10 @@
         <v>2.9</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="O43" t="n">
         <v>1.14</v>
@@ -8183,10 +8185,10 @@
         <v>2.12</v>
       </c>
       <c r="S43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T43" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="U43" t="n">
         <v>1.5</v>
@@ -8325,13 +8327,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J44" t="n">
         <v>2.63</v>
@@ -8376,10 +8378,10 @@
         <v>8.5</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z44" t="n">
         <v>19</v>
@@ -8397,7 +8399,7 @@
         <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
         <v>41</v>
@@ -8409,7 +8411,7 @@
         <v>13</v>
       </c>
       <c r="AI44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ44" t="n">
         <v>13</v>
@@ -8418,13 +8420,13 @@
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
         <v>34</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO44" t="n">
         <v>11</v>
@@ -8710,7 +8712,7 @@
         <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O46" t="n">
         <v>1.17</v>
@@ -8871,46 +8873,46 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H47" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="K47" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="L47" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P47" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="S47" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="T47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="n">
         <v>1.72</v>
@@ -8919,7 +8921,7 @@
         <v>2</v>
       </c>
       <c r="W47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X47" t="n">
         <v>7.8</v>
@@ -8928,40 +8930,40 @@
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AA47" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF47" t="n">
         <v>65</v>
       </c>
       <c r="AG47" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
         <v>45</v>
       </c>
       <c r="AJ47" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL47" t="n">
         <v>60</v>
@@ -8973,31 +8975,31 @@
         <v>3.45</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AP47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ47" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR47" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS47" t="n">
         <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV47" t="n">
         <v>60</v>
       </c>
       <c r="AW47" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AX47" t="n">
         <v>35</v>
@@ -9053,22 +9055,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="H48" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I48" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="J48" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
@@ -9077,124 +9079,124 @@
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="R48" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T48" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="U48" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V48" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="W48" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="X48" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AA48" t="n">
         <v>10</v>
       </c>
       <c r="AB48" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AF48" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG48" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="n">
         <v>450</v>
       </c>
-      <c r="AH48" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI48" t="n">
+      <c r="AL48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM48" t="n">
         <v>100</v>
       </c>
-      <c r="AJ48" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>80</v>
-      </c>
       <c r="AN48" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO48" t="n">
-        <v>5.1</v>
+        <v>4.85</v>
       </c>
       <c r="AP48" t="n">
         <v>13</v>
       </c>
       <c r="AQ48" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AR48" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW48" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AY48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AZ48" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BA48" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB48" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
@@ -9595,34 +9597,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H51" t="n">
         <v>3.15</v>
       </c>
       <c r="I51" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J51" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="K51" t="n">
         <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M51" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O51" t="n">
         <v>1.4</v>
       </c>
       <c r="P51" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q51" t="n">
         <v>2.15</v>
@@ -9634,7 +9636,7 @@
         <v>1.45</v>
       </c>
       <c r="T51" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="U51" t="n">
         <v>1.93</v>
@@ -9643,10 +9645,10 @@
         <v>1.7</v>
       </c>
       <c r="W51" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X51" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y51" t="n">
         <v>12.5</v>
@@ -9661,7 +9663,7 @@
         <v>50</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD51" t="n">
         <v>6.2</v>
@@ -9688,7 +9690,7 @@
         <v>18</v>
       </c>
       <c r="AL51" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AM51" t="n">
         <v>37</v>
@@ -9700,22 +9702,22 @@
         <v>20</v>
       </c>
       <c r="AP51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ51" t="n">
         <v>110</v>
       </c>
       <c r="AR51" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS51" t="n">
         <v>450</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV51" t="n">
         <v>80</v>
@@ -9724,13 +9726,13 @@
         <v>3.75</v>
       </c>
       <c r="AX51" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AY51" t="n">
         <v>22</v>
       </c>
       <c r="AZ51" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA51" t="n">
         <v>90</v>
@@ -9780,16 +9782,16 @@
         <v>3.05</v>
       </c>
       <c r="H52" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="I52" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="J52" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K52" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="L52" t="n">
         <v>3.3</v>
@@ -9798,68 +9800,68 @@
         <v>1.14</v>
       </c>
       <c r="N52" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="O52" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S52" t="n">
         <v>1.57</v>
       </c>
-      <c r="P52" t="n">
+      <c r="T52" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q52" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R52" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S52" t="n">
+      <c r="U52" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V52" t="n">
         <v>1.6</v>
       </c>
-      <c r="T52" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="U52" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W52" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="X52" t="n">
         <v>14</v>
       </c>
       <c r="Y52" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z52" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA52" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB52" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC52" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AD52" t="n">
         <v>5.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF52" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
         <v>5.9</v>
       </c>
       <c r="AI52" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ52" t="n">
         <v>10.5</v>
@@ -9868,46 +9870,46 @@
         <v>30</v>
       </c>
       <c r="AL52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM52" t="n">
         <v>50</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AO52" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ52" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR52" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS52" t="n">
         <v>500</v>
       </c>
       <c r="AT52" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV52" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="AX52" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AY52" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ52" t="n">
         <v>75</v>
@@ -9916,7 +9918,7 @@
         <v>150</v>
       </c>
       <c r="BB52" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC52" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -753,7 +753,7 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -971,22 +971,22 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y3" t="n">
         <v>9</v>
       </c>
-      <c r="X3" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -1001,28 +1001,28 @@
         <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="n">
         <v>51</v>
@@ -1037,7 +1037,7 @@
         <v>17</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1049,25 +1049,25 @@
         <v>3.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
         <v>251</v>
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L5" t="n">
         <v>1.73</v>
@@ -1335,22 +1335,22 @@
         <v>4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V5" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
+        <v>34</v>
+      </c>
+      <c r="X5" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y5" t="n">
         <v>29</v>
       </c>
-      <c r="X5" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>26</v>
-      </c>
       <c r="Z5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA5" t="n">
         <v>51</v>
@@ -1380,7 +1380,7 @@
         <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
@@ -1392,7 +1392,7 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
         <v>34</v>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
@@ -1440,7 +1440,7 @@
         <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
@@ -1490,7 +1490,7 @@
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
@@ -1517,16 +1517,16 @@
         <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1622,7 +1622,7 @@
         <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
@@ -1735,7 +1735,7 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="n">
         <v>19</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -2168,7 +2168,7 @@
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2582,7 +2582,7 @@
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
         <v>1.3</v>
@@ -2609,10 +2609,10 @@
         <v>3.4</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
@@ -2645,7 +2645,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2699,7 +2699,7 @@
         <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
         <v>101</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.05</v>
@@ -2800,7 +2800,7 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2842,7 +2842,7 @@
         <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -2863,7 +2863,7 @@
         <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
@@ -2878,10 +2878,10 @@
         <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
         <v>81</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="H14" t="n">
         <v>11</v>
@@ -2936,7 +2936,7 @@
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K14" t="n">
         <v>3.6</v>
@@ -2948,7 +2948,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
         <v>1.07</v>
@@ -2963,22 +2963,22 @@
         <v>3.6</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -3014,7 +3014,7 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="n">
         <v>351</v>
@@ -3026,7 +3026,7 @@
         <v>101</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO14" t="n">
         <v>4.33</v>
@@ -3041,10 +3041,10 @@
         <v>29</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU14" t="n">
         <v>13</v>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -3857,10 +3857,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4221,10 +4221,10 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="R21" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4555,28 +4555,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
         <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
         <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>1.5</v>
@@ -4585,10 +4585,10 @@
         <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
         <v>1.57</v>
@@ -4606,7 +4606,7 @@
         <v>4.75</v>
       </c>
       <c r="X23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y23" t="n">
         <v>9.5</v>
@@ -4615,7 +4615,7 @@
         <v>12</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
@@ -4624,7 +4624,7 @@
         <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4636,10 +4636,10 @@
         <v>101</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
@@ -4657,10 +4657,10 @@
         <v>3.4</v>
       </c>
       <c r="AO23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>34</v>
@@ -4678,10 +4678,10 @@
         <v>11</v>
       </c>
       <c r="AV23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX23" t="n">
         <v>41</v>
@@ -4939,10 +4939,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5447,28 +5447,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="J28" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="K28" t="n">
         <v>2.05</v>
       </c>
       <c r="L28" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
         <v>1.36</v>
@@ -5477,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5495,31 +5495,31 @@
         <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="n">
         <v>34</v>
       </c>
-      <c r="AA28" t="n">
-        <v>26</v>
-      </c>
       <c r="AB28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="n">
         <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>51</v>
@@ -5528,40 +5528,40 @@
         <v>351</v>
       </c>
       <c r="AH28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM28" t="n">
         <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT28" t="n">
         <v>2.5</v>
@@ -5570,19 +5570,19 @@
         <v>8.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA28" t="n">
         <v>67</v>
@@ -5653,10 +5653,10 @@
         <v>10</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q29" t="n">
         <v>2.05</v>
@@ -7791,34 +7791,30 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="H41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I41" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="K41" t="n">
         <v>2.2</v>
       </c>
       <c r="L41" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N41" t="n">
-        <v>8.1</v>
-      </c>
+        <v>3.7</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.56</v>
       </c>
       <c r="Q41" t="n">
         <v>1.65</v>
@@ -7827,34 +7823,34 @@
         <v>1.98</v>
       </c>
       <c r="S41" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T41" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="U41" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="V41" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="W41" t="n">
         <v>7.4</v>
       </c>
       <c r="X41" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA41" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB41" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AC41" t="n">
         <v>12</v>
@@ -7872,37 +7868,37 @@
         <v>250</v>
       </c>
       <c r="AH41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>9.75</v>
       </c>
-      <c r="AI41" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AJ41" t="n">
+      <c r="AK41" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO41" t="n">
         <v>9.5</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AP41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ41" t="n">
         <v>32</v>
       </c>
-      <c r="AL41" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>35</v>
-      </c>
       <c r="AR41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS41" t="n">
         <v>200</v>
@@ -7917,19 +7913,19 @@
         <v>55</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AX41" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ41" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA41" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB41" t="n">
         <v>250</v>
@@ -7969,145 +7965,145 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="H42" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="J42" t="n">
-        <v>3.6</v>
+        <v>4.05</v>
       </c>
       <c r="K42" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="M42" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="O42" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P42" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="S42" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T42" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="U42" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="V42" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="X42" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="Z42" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AO42" t="n">
         <v>20</v>
       </c>
-      <c r="AB42" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>17</v>
-      </c>
       <c r="AP42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ42" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR42" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS42" t="n">
         <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV42" t="n">
         <v>50</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="AX42" t="n">
-        <v>10.25</v>
+        <v>8.75</v>
       </c>
       <c r="AY42" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ42" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="BA42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB42" t="n">
         <v>175</v>
@@ -8149,148 +8145,144 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="H43" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="I43" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="K43" t="n">
-        <v>2.27</v>
+        <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12.9</v>
-      </c>
+        <v>3.4</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4.15</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="S43" t="n">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="T43" t="n">
-        <v>3.4</v>
+        <v>3.04</v>
       </c>
       <c r="U43" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>2.51</v>
+        <v>2.24</v>
       </c>
       <c r="W43" t="n">
-        <v>9.25</v>
+        <v>7.1</v>
       </c>
       <c r="X43" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AA43" t="n">
         <v>14.5</v>
       </c>
       <c r="AB43" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>37</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL43" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AM43" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="AO43" t="n">
         <v>12</v>
       </c>
       <c r="AP43" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ43" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR43" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS43" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.2</v>
+        <v>2.77</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV43" t="n">
         <v>50</v>
       </c>
       <c r="AW43" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AX43" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AZ43" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BA43" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BB43" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
@@ -8330,10 +8322,10 @@
         <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
         <v>2.63</v>
@@ -8408,10 +8400,10 @@
         <v>151</v>
       </c>
       <c r="AH44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI44" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="n">
         <v>13</v>
@@ -8420,7 +8412,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM44" t="n">
         <v>34</v>
@@ -8515,7 +8507,7 @@
         <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J45" t="n">
         <v>1.73</v>
@@ -8524,13 +8516,13 @@
         <v>2.63</v>
       </c>
       <c r="L45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
         <v>1.17</v>
@@ -8551,28 +8543,28 @@
         <v>3.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V45" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X45" t="n">
         <v>7</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA45" t="n">
         <v>11</v>
       </c>
       <c r="AB45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
         <v>15</v>
@@ -8587,28 +8579,28 @@
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ45" t="n">
         <v>26</v>
       </c>
       <c r="AK45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM45" t="n">
         <v>51</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO45" t="n">
         <v>6</v>
@@ -8629,13 +8621,13 @@
         <v>3.5</v>
       </c>
       <c r="AU45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV45" t="n">
         <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AX45" t="n">
         <v>41</v>
@@ -8644,19 +8636,19 @@
         <v>41</v>
       </c>
       <c r="AZ45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA45" t="n">
         <v>151</v>
       </c>
       <c r="BB45" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC45" t="n">
         <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -8876,19 +8868,19 @@
         <v>1.39</v>
       </c>
       <c r="H47" t="n">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="I47" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J47" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="K47" t="n">
         <v>2.52</v>
       </c>
       <c r="L47" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8897,16 +8889,16 @@
         <v>9.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="S47" t="n">
         <v>1.27</v>
@@ -8915,13 +8907,13 @@
         <v>3.4</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="X47" t="n">
         <v>7.8</v>
@@ -8930,7 +8922,7 @@
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AA47" t="n">
         <v>10.5</v>
@@ -8945,16 +8937,16 @@
         <v>9.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG47" t="n">
         <v>400</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
         <v>45</v>
@@ -8993,13 +8985,13 @@
         <v>3.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AX47" t="n">
         <v>35</v>
@@ -9597,22 +9589,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H51" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I51" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="J51" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -9621,7 +9613,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P51" t="n">
         <v>2.55</v>
@@ -9636,19 +9628,19 @@
         <v>1.45</v>
       </c>
       <c r="T51" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="U51" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V51" t="n">
         <v>1.7</v>
       </c>
       <c r="W51" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X51" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y51" t="n">
         <v>12.5</v>
@@ -9657,13 +9649,13 @@
         <v>50</v>
       </c>
       <c r="AA51" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB51" t="n">
         <v>50</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD51" t="n">
         <v>6.2</v>
@@ -9678,37 +9670,37 @@
         <v>1000</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AJ51" t="n">
         <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AL51" t="n">
         <v>18.5</v>
       </c>
       <c r="AM51" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN51" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO51" t="n">
         <v>20</v>
       </c>
       <c r="AP51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ51" t="n">
         <v>110</v>
       </c>
       <c r="AR51" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS51" t="n">
         <v>450</v>
@@ -9717,22 +9709,22 @@
         <v>2.35</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV51" t="n">
         <v>80</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AX51" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY51" t="n">
         <v>22</v>
       </c>
       <c r="AZ51" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA51" t="n">
         <v>90</v>
@@ -9779,22 +9771,22 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="H52" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I52" t="n">
         <v>2.72</v>
       </c>
-      <c r="I52" t="n">
-        <v>2.55</v>
-      </c>
       <c r="J52" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="K52" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L52" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.14</v>
@@ -9818,77 +9810,77 @@
         <v>1.57</v>
       </c>
       <c r="T52" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U52" t="n">
         <v>2.1</v>
       </c>
-      <c r="U52" t="n">
-        <v>2.07</v>
-      </c>
       <c r="V52" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W52" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="X52" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Y52" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Z52" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA52" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB52" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC52" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="AD52" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE52" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AI52" t="n">
-        <v>11</v>
+        <v>11.75</v>
       </c>
       <c r="AJ52" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK52" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL52" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP52" t="n">
         <v>29</v>
       </c>
-      <c r="AM52" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>18</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ52" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AR52" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS52" t="n">
         <v>500</v>
@@ -9897,25 +9889,25 @@
         <v>2.07</v>
       </c>
       <c r="AU52" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV52" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>30</v>
+      </c>
+      <c r="AZ52" t="n">
         <v>90</v>
       </c>
-      <c r="AW52" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>75</v>
-      </c>
       <c r="BA52" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB52" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -953,16 +953,16 @@
         <v>15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.29</v>
@@ -977,13 +977,13 @@
         <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>7.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>9.5</v>
@@ -998,16 +998,16 @@
         <v>15</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>26</v>
@@ -1031,7 +1031,7 @@
         <v>3.4</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
@@ -1383,7 +1383,7 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL5" t="n">
         <v>11</v>
@@ -1404,7 +1404,7 @@
         <v>126</v>
       </c>
       <c r="AR5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
@@ -1475,85 +1475,85 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="S6" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1562,10 +1562,10 @@
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1574,10 +1574,10 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
@@ -1589,40 +1589,40 @@
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8</v>
-      </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -1660,7 +1660,7 @@
         <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
         <v>4.2</v>
@@ -1669,10 +1669,10 @@
         <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1681,49 +1681,49 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
         <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
+        <v>10</v>
+      </c>
+      <c r="X7" t="n">
         <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1735,10 +1735,10 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>26</v>
@@ -1774,10 +1774,10 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>41</v>
@@ -1792,19 +1792,19 @@
         <v>23</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1851,10 +1851,10 @@
         <v>1.95</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1863,22 +1863,22 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
         <v>1.67</v>
@@ -1887,7 +1887,7 @@
         <v>2.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>8.5</v>
@@ -1908,7 +1908,7 @@
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,7 +1920,7 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
         <v>7</v>
@@ -1953,16 +1953,16 @@
         <v>41</v>
       </c>
       <c r="AS8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
         <v>8</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2168,7 +2168,7 @@
         <v>501</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2203,67 +2203,67 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2272,10 +2272,10 @@
         <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
@@ -2284,34 +2284,34 @@
         <v>501</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2320,7 +2320,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2329,19 +2329,19 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2385,28 +2385,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.4</v>
@@ -2421,16 +2421,16 @@
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>5</v>
@@ -2439,7 +2439,7 @@
         <v>5.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
         <v>8.5</v>
@@ -2454,13 +2454,13 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
         <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>501</v>
@@ -2475,7 +2475,7 @@
         <v>26</v>
       </c>
       <c r="AK11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
         <v>81</v>
@@ -2493,7 +2493,7 @@
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,19 +2502,19 @@
         <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AY11" t="n">
         <v>51</v>
@@ -2523,7 +2523,7 @@
         <v>251</v>
       </c>
       <c r="BA11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,43 +2591,43 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="S12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2645,7 +2645,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
         <v>19</v>
@@ -2666,7 +2666,7 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO12" t="n">
         <v>7.5</v>
@@ -2684,7 +2684,7 @@
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2693,22 +2693,22 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY12" t="n">
         <v>29</v>
       </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA12" t="n">
         <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
         <v>501</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2927,22 +2927,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2951,34 +2951,34 @@
         <v>26</v>
       </c>
       <c r="O14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R14" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2990,10 +2990,10 @@
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
         <v>21</v>
@@ -3026,7 +3026,7 @@
         <v>101</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO14" t="n">
         <v>4.33</v>
@@ -3035,22 +3035,22 @@
         <v>17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AR14" t="n">
         <v>29</v>
       </c>
       <c r="AS14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT14" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU14" t="n">
         <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW14" t="n">
         <v>19</v>
@@ -3059,7 +3059,7 @@
         <v>81</v>
       </c>
       <c r="AY14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ14" t="n">
         <v>351</v>
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -3118,7 +3118,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3127,16 +3127,16 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R15" t="n">
         <v>1.88</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.93</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3151,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -3238,7 +3238,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
@@ -3281,97 +3281,97 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L16" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA16" t="n">
         <v>26</v>
       </c>
-      <c r="AA16" t="n">
-        <v>23</v>
-      </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF16" t="n">
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
@@ -3380,13 +3380,13 @@
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ16" t="n">
         <v>51</v>
@@ -3395,25 +3395,25 @@
         <v>81</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
         <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3422,7 +3422,7 @@
         <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3487,16 +3487,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.92</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3830,52 +3830,52 @@
         <v>2.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
@@ -3887,13 +3887,13 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3905,10 +3905,10 @@
         <v>51</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
@@ -3932,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3944,13 +3944,13 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
         <v>5</v>
@@ -3965,7 +3965,7 @@
         <v>67</v>
       </c>
       <c r="BA19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
         <v>251</v>
@@ -4009,22 +4009,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4039,10 +4039,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4057,19 +4057,19 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
@@ -4081,7 +4081,7 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4090,28 +4090,28 @@
         <v>251</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4135,16 +4135,16 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA20" t="n">
         <v>67</v>
@@ -4376,52 +4376,52 @@
         <v>2.75</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -4439,7 +4439,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4451,7 +4451,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
         <v>8</v>
@@ -4460,19 +4460,19 @@
         <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO22" t="n">
         <v>15</v>
@@ -4490,10 +4490,10 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4555,19 +4555,19 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
         <v>7</v>
@@ -4597,10 +4597,10 @@
         <v>2.25</v>
       </c>
       <c r="U23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
         <v>4.75</v>
@@ -4612,7 +4612,7 @@
         <v>9.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
         <v>17</v>
@@ -4645,7 +4645,7 @@
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="n">
         <v>51</v>
@@ -4654,16 +4654,16 @@
         <v>67</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP23" t="n">
         <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR23" t="n">
         <v>67</v>
@@ -4678,7 +4678,7 @@
         <v>11</v>
       </c>
       <c r="AV23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW23" t="n">
         <v>7.5</v>
@@ -4690,7 +4690,7 @@
         <v>51</v>
       </c>
       <c r="AZ23" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA23" t="n">
         <v>251</v>
@@ -4731,13 +4731,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J24" t="n">
         <v>6.5</v>
@@ -4746,13 +4746,13 @@
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4785,7 +4785,7 @@
         <v>29</v>
       </c>
       <c r="Y24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
         <v>67</v>
@@ -4797,7 +4797,7 @@
         <v>51</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4842,7 +4842,7 @@
         <v>151</v>
       </c>
       <c r="AR24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS24" t="n">
         <v>351</v>
@@ -4860,13 +4860,13 @@
         <v>3.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
@@ -5109,10 +5109,10 @@
         <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
         <v>2.5</v>
@@ -5477,10 +5477,10 @@
         <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S28" t="n">
         <v>1.5</v>
@@ -5495,7 +5495,7 @@
         <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
         <v>17</v>
@@ -5525,7 +5525,7 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH28" t="n">
         <v>6.5</v>
@@ -5552,7 +5552,7 @@
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ28" t="n">
         <v>67</v>
@@ -5629,10 +5629,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
         <v>2.15</v>
@@ -5641,16 +5641,16 @@
         <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L29" t="n">
         <v>2.88</v>
       </c>
       <c r="M29" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
@@ -5659,10 +5659,10 @@
         <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S29" t="n">
         <v>1.44</v>
@@ -5686,16 +5686,16 @@
         <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="n">
         <v>29</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD29" t="n">
         <v>6</v>
@@ -6011,10 +6011,10 @@
         <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -6175,19 +6175,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H32" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J32" t="n">
         <v>2.2</v>
       </c>
       <c r="K32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L32" t="n">
         <v>5.5</v>
@@ -6196,7 +6196,7 @@
         <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O32" t="n">
         <v>1.25</v>
@@ -6217,16 +6217,16 @@
         <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W32" t="n">
+        <v>7</v>
+      </c>
+      <c r="X32" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>8</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
@@ -6241,7 +6241,7 @@
         <v>26</v>
       </c>
       <c r="AC32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="n">
         <v>7.5</v>
@@ -6253,13 +6253,13 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH32" t="n">
         <v>15</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ32" t="n">
         <v>17</v>
@@ -6286,10 +6286,10 @@
         <v>26</v>
       </c>
       <c r="AR32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
         <v>3</v>
@@ -6313,7 +6313,7 @@
         <v>101</v>
       </c>
       <c r="BA32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB32" t="n">
         <v>251</v>
@@ -6751,10 +6751,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6899,19 +6899,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H36" t="n">
         <v>4.2</v>
       </c>
       <c r="I36" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L36" t="n">
         <v>2.1</v>
@@ -6941,16 +6941,16 @@
         <v>3.5</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
         <v>17</v>
       </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
         <v>15</v>
@@ -6980,7 +6980,7 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI36" t="n">
         <v>9</v>
@@ -6989,7 +6989,7 @@
         <v>8.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL36" t="n">
         <v>12</v>
@@ -7001,10 +7001,10 @@
         <v>7</v>
       </c>
       <c r="AO36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP36" t="n">
         <v>26</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>29</v>
       </c>
       <c r="AQ36" t="n">
         <v>81</v>
@@ -7028,13 +7028,13 @@
         <v>3.75</v>
       </c>
       <c r="AX36" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA36" t="n">
         <v>41</v>
@@ -7079,22 +7079,22 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J37" t="n">
         <v>3.4</v>
       </c>
       <c r="K37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.06</v>
@@ -7109,10 +7109,10 @@
         <v>3.25</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7121,10 +7121,10 @@
         <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
         <v>8.5</v>
@@ -7139,13 +7139,13 @@
         <v>26</v>
       </c>
       <c r="AA37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7160,10 +7160,10 @@
         <v>251</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
@@ -7175,7 +7175,7 @@
         <v>21</v>
       </c>
       <c r="AM37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="n">
         <v>4.75</v>
@@ -7190,7 +7190,7 @@
         <v>51</v>
       </c>
       <c r="AR37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS37" t="n">
         <v>201</v>
@@ -7205,7 +7205,7 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX37" t="n">
         <v>15</v>
@@ -7263,7 +7263,7 @@
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
         <v>2.05</v>
@@ -7308,7 +7308,7 @@
         <v>7</v>
       </c>
       <c r="X38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7338,10 +7338,10 @@
         <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
         <v>19</v>
@@ -7392,7 +7392,7 @@
         <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA38" t="n">
         <v>126</v>
@@ -7435,13 +7435,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J39" t="n">
         <v>2.4</v>
@@ -7477,13 +7477,13 @@
         <v>3.25</v>
       </c>
       <c r="U39" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X39" t="n">
         <v>9.5</v>
@@ -7498,7 +7498,7 @@
         <v>13</v>
       </c>
       <c r="AB39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC39" t="n">
         <v>13</v>
@@ -7528,7 +7528,7 @@
         <v>41</v>
       </c>
       <c r="AL39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
@@ -7549,7 +7549,7 @@
         <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT39" t="n">
         <v>3.25</v>
@@ -7613,13 +7613,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="H40" t="n">
-        <v>4.7</v>
+        <v>4.55</v>
       </c>
       <c r="I40" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="J40" t="n">
         <v>6.2</v>
@@ -7631,85 +7631,85 @@
         <v>1.75</v>
       </c>
       <c r="M40" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>13.4</v>
+        <v>14.1</v>
       </c>
       <c r="O40" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P40" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Q40" t="n">
         <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S40" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="T40" t="n">
-        <v>3.46</v>
+        <v>3.6</v>
       </c>
       <c r="U40" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="V40" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="W40" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y40" t="n">
         <v>17</v>
       </c>
-      <c r="X40" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>18</v>
-      </c>
       <c r="Z40" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AB40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC40" t="n">
         <v>14.5</v>
       </c>
       <c r="AD40" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE40" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG40" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH40" t="n">
         <v>6.9</v>
       </c>
       <c r="AI40" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK40" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AL40" t="n">
         <v>9</v>
       </c>
       <c r="AM40" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AN40" t="n">
         <v>8.25</v>
@@ -7791,19 +7791,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="H41" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
         <v>3.3</v>
       </c>
       <c r="J41" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="K41" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L41" t="n">
         <v>3.7</v>
@@ -7814,19 +7814,19 @@
         <v>1.19</v>
       </c>
       <c r="P41" t="n">
-        <v>3.56</v>
+        <v>3.58</v>
       </c>
       <c r="Q41" t="n">
         <v>1.65</v>
       </c>
       <c r="R41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S41" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T41" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="U41" t="n">
         <v>1.61</v>
@@ -7844,7 +7844,7 @@
         <v>7.2</v>
       </c>
       <c r="Z41" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA41" t="n">
         <v>11.75</v>
@@ -7853,13 +7853,13 @@
         <v>18</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE41" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AF41" t="n">
         <v>40</v>
@@ -7889,7 +7889,7 @@
         <v>3.9</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP41" t="n">
         <v>17</v>
@@ -7904,10 +7904,10 @@
         <v>200</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU41" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV41" t="n">
         <v>55</v>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H42" t="n">
         <v>3.6</v>
       </c>
       <c r="I42" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="J42" t="n">
         <v>4.05</v>
@@ -7980,43 +7980,43 @@
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P42" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R42" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="S42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T42" t="n">
-        <v>3.32</v>
+        <v>3.42</v>
       </c>
       <c r="U42" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="V42" t="n">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="W42" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X42" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y42" t="n">
         <v>10.75</v>
@@ -8028,25 +8028,25 @@
         <v>25</v>
       </c>
       <c r="AB42" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC42" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF42" t="n">
         <v>35</v>
       </c>
       <c r="AG42" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH42" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI42" t="n">
         <v>8.25</v>
@@ -8061,10 +8061,10 @@
         <v>10.75</v>
       </c>
       <c r="AM42" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AN42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AO42" t="n">
         <v>20</v>
@@ -8082,10 +8082,10 @@
         <v>250</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV42" t="n">
         <v>50</v>
@@ -8094,10 +8094,10 @@
         <v>3.85</v>
       </c>
       <c r="AX42" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ42" t="n">
         <v>28</v>
@@ -8106,7 +8106,7 @@
         <v>50</v>
       </c>
       <c r="BB42" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC42" t="n">
         <v>450</v>
@@ -8145,144 +8145,144 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="H43" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="K43" t="n">
         <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>3.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R43" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S43" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="T43" t="n">
-        <v>3.04</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="V43" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="X43" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Z43" t="n">
+      <c r="AK43" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>22</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>40</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>70</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AX43" t="n">
         <v>18</v>
       </c>
-      <c r="AA43" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>37</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AY43" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AZ43" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BA43" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="BB43" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
@@ -8531,10 +8531,10 @@
         <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S45" t="n">
         <v>1.29</v>
@@ -8648,7 +8648,7 @@
         <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46">
@@ -9225,22 +9225,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="K49" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -9267,73 +9267,73 @@
         <v>3.7</v>
       </c>
       <c r="U49" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W49" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="X49" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA49" t="n">
         <v>11</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC49" t="n">
         <v>10.75</v>
       </c>
       <c r="AD49" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF49" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG49" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH49" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ49" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AK49" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL49" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AM49" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AN49" t="n">
         <v>3.2</v>
       </c>
       <c r="AO49" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AP49" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AR49" t="n">
         <v>32</v>
@@ -9345,25 +9345,25 @@
         <v>3.7</v>
       </c>
       <c r="AU49" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV49" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW49" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AX49" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY49" t="n">
         <v>55</v>
       </c>
-      <c r="AY49" t="n">
-        <v>50</v>
-      </c>
       <c r="AZ49" t="n">
+        <v>500</v>
+      </c>
+      <c r="BA49" t="n">
         <v>450</v>
-      </c>
-      <c r="BA49" t="n">
-        <v>350</v>
       </c>
       <c r="BB49" t="n">
         <v>500</v>
@@ -9589,22 +9589,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L51" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -9613,10 +9613,10 @@
         <v>8.300000000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P51" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q51" t="n">
         <v>2.15</v>
@@ -9637,49 +9637,49 @@
         <v>1.7</v>
       </c>
       <c r="W51" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y51" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z51" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA51" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="n">
         <v>50</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE51" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF51" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG51" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AJ51" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK51" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL51" t="n">
         <v>18.5</v>
@@ -9688,16 +9688,16 @@
         <v>35</v>
       </c>
       <c r="AN51" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AO51" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP51" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ51" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR51" t="n">
         <v>175</v>
@@ -9709,28 +9709,28 @@
         <v>2.35</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV51" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA51" t="n">
         <v>80</v>
       </c>
-      <c r="AW51" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>90</v>
-      </c>
       <c r="BB51" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC51" t="n">
         <v>81</v>
@@ -9951,34 +9951,34 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="H53" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I53" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J53" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="K53" t="n">
         <v>2.37</v>
       </c>
       <c r="L53" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P53" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q53" t="n">
         <v>1.7</v>
@@ -9999,7 +9999,7 @@
         <v>1.78</v>
       </c>
       <c r="W53" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="X53" t="n">
         <v>40</v>
@@ -10014,16 +10014,16 @@
         <v>70</v>
       </c>
       <c r="AB53" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE53" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF53" t="n">
         <v>90</v>
@@ -10038,10 +10038,10 @@
         <v>6.7</v>
       </c>
       <c r="AJ53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK53" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AL53" t="n">
         <v>11.5</v>
@@ -10050,7 +10050,7 @@
         <v>27</v>
       </c>
       <c r="AN53" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AO53" t="n">
         <v>37</v>
@@ -10075,16 +10075,16 @@
         <v>80</v>
       </c>
       <c r="AW53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AX53" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AY53" t="n">
         <v>17</v>
       </c>
       <c r="AZ53" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA53" t="n">
         <v>50</v>
@@ -10139,10 +10139,10 @@
         <v>2.2</v>
       </c>
       <c r="K54" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L54" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -10151,31 +10151,31 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="n">
         <v>1.3</v>
       </c>
       <c r="T54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U54" t="n">
         <v>1.62</v>
       </c>
       <c r="V54" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W54" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X54" t="n">
         <v>9.25</v>
@@ -10184,7 +10184,7 @@
         <v>8.25</v>
       </c>
       <c r="Z54" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA54" t="n">
         <v>12.5</v>
@@ -10205,7 +10205,7 @@
         <v>50</v>
       </c>
       <c r="AG54" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH54" t="n">
         <v>15</v>
@@ -10220,16 +10220,16 @@
         <v>60</v>
       </c>
       <c r="AL54" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AM54" t="n">
         <v>35</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AP54" t="n">
         <v>15</v>
@@ -10241,16 +10241,16 @@
         <v>45</v>
       </c>
       <c r="AS54" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU54" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV54" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW54" t="n">
         <v>6.1</v>
@@ -10259,10 +10259,10 @@
         <v>21</v>
       </c>
       <c r="AY54" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ54" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BA54" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -935,22 +935,22 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1.8</v>
       </c>
       <c r="K3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -965,37 +965,37 @@
         <v>2.5</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -1007,10 +1007,10 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
@@ -1028,28 +1028,28 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
         <v>17</v>
       </c>
       <c r="AR3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS3" t="n">
         <v>101</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1061,22 +1061,22 @@
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
         <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC3" t="n">
-        <v>140</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,7 +1126,7 @@
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
@@ -1198,7 +1198,7 @@
         <v>11</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1210,19 +1210,19 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1329,10 +1329,10 @@
         <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="U5" t="n">
         <v>1.67</v>
@@ -1383,7 +1383,7 @@
         <v>9.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL5" t="n">
         <v>11</v>
@@ -1404,13 +1404,13 @@
         <v>126</v>
       </c>
       <c r="AR5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1475,19 +1475,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -1499,22 +1499,22 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
         <v>1.95</v>
@@ -1523,13 +1523,13 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>7.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>10</v>
@@ -1541,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1562,7 +1562,7 @@
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
@@ -1577,10 +1577,10 @@
         <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>19</v>
@@ -1592,7 +1592,7 @@
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1681,16 +1681,16 @@
         <v>15</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S7" t="n">
         <v>1.3</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L8" t="n">
         <v>6.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
         <v>1.29</v>
@@ -1881,22 +1881,22 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1908,10 +1908,10 @@
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,7 +1920,7 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1929,10 +1929,10 @@
         <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
@@ -1959,31 +1959,31 @@
         <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
         <v>151</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2075,7 +2075,7 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -2105,10 +2105,10 @@
         <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2150,7 +2150,7 @@
         <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2209,7 +2209,7 @@
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
         <v>2.63</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2245,10 +2245,10 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2299,7 +2299,7 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
         <v>3.75</v>
@@ -2317,7 +2317,7 @@
         <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.38</v>
@@ -2338,7 +2338,7 @@
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
         <v>126</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="H12" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,16 +2591,16 @@
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2609,25 +2609,25 @@
         <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
@@ -2636,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,16 +2645,16 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>67</v>
@@ -2666,16 +2666,16 @@
         <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR12" t="n">
         <v>41</v>
@@ -2693,22 +2693,22 @@
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
         <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
         <v>501</v>
@@ -2749,46 +2749,46 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.75</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.8</v>
@@ -2800,25 +2800,25 @@
         <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB13" t="n">
         <v>26</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
@@ -2830,34 +2830,34 @@
         <v>251</v>
       </c>
       <c r="AH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>13</v>
       </c>
-      <c r="AI13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>15</v>
-      </c>
       <c r="AK13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
         <v>51</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,19 +2875,19 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA13" t="n">
         <v>81</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>101</v>
       </c>
       <c r="BB13" t="n">
         <v>201</v>
@@ -3103,55 +3103,55 @@
         </is>
       </c>
       <c r="G15" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.63</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
@@ -3166,28 +3166,28 @@
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3208,7 +3208,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
@@ -3217,19 +3217,19 @@
         <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
         <v>15</v>
@@ -3238,7 +3238,7 @@
         <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
         <v>67</v>
@@ -3290,19 +3290,19 @@
         <v>2.55</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3323,10 +3323,10 @@
         <v>2.38</v>
       </c>
       <c r="U16" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W16" t="n">
         <v>7.5</v>
@@ -3371,7 +3371,7 @@
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
@@ -3407,7 +3407,7 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
@@ -3472,7 +3472,7 @@
         <v>2.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
@@ -3493,10 +3493,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="R17" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3511,7 +3511,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>17</v>
@@ -3520,7 +3520,7 @@
         <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
@@ -3535,13 +3535,13 @@
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
@@ -3571,28 +3571,28 @@
         <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR17" t="n">
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3645,22 +3645,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H18" t="n">
         <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3675,10 +3675,10 @@
         <v>3.2</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3687,16 +3687,16 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>9</v>
@@ -3711,7 +3711,7 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6.5</v>
@@ -3720,25 +3720,25 @@
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
@@ -3750,7 +3750,7 @@
         <v>10</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
         <v>34</v>
@@ -3759,7 +3759,7 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
         <v>2.63</v>
@@ -3768,13 +3768,13 @@
         <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
@@ -3783,10 +3783,10 @@
         <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -3845,10 +3845,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O19" t="n">
         <v>1.36</v>
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K20" t="n">
         <v>2.1</v>
@@ -4090,7 +4090,7 @@
         <v>251</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4141,7 +4141,7 @@
         <v>15</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
@@ -4391,22 +4391,22 @@
         <v>3.4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4749,10 +4749,10 @@
         <v>2.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4761,10 +4761,10 @@
         <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
         <v>3.25</v>
@@ -5103,10 +5103,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
         <v>1.44</v>
@@ -5127,16 +5127,16 @@
         <v>2.25</v>
       </c>
       <c r="U26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W26" t="n">
         <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>10</v>
@@ -5176,7 +5176,7 @@
         <v>34</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
@@ -5343,7 +5343,7 @@
         <v>67</v>
       </c>
       <c r="AG27" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
         <v>8</v>
@@ -5447,52 +5447,52 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
         <v>2.05</v>
       </c>
       <c r="J28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
         <v>2.88</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W28" t="n">
         <v>9</v>
@@ -5513,28 +5513,28 @@
         <v>41</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE28" t="n">
         <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
         <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK28" t="n">
         <v>19</v>
@@ -5555,19 +5555,19 @@
         <v>34</v>
       </c>
       <c r="AQ28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS28" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV28" t="n">
         <v>67</v>
@@ -5579,7 +5579,7 @@
         <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ28" t="n">
         <v>41</v>
@@ -5993,13 +5993,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H31" t="n">
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -6008,25 +6008,25 @@
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6035,10 +6035,10 @@
         <v>2.75</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V31" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W31" t="n">
         <v>8</v>
@@ -6071,7 +6071,7 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH31" t="n">
         <v>9.5</v>
@@ -6083,10 +6083,10 @@
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
@@ -6134,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6357,22 +6357,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K33" t="n">
         <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6399,10 +6399,10 @@
         <v>3.75</v>
       </c>
       <c r="U33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W33" t="n">
         <v>10</v>
@@ -6411,7 +6411,7 @@
         <v>8.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z33" t="n">
         <v>11</v>
@@ -6420,16 +6420,16 @@
         <v>11</v>
       </c>
       <c r="AB33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
         <v>41</v>
@@ -6438,7 +6438,7 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>34</v>
@@ -6456,7 +6456,7 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO33" t="n">
         <v>7</v>
@@ -6539,22 +6539,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6569,10 +6569,10 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
         <v>1.36</v>
@@ -6596,16 +6596,16 @@
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
         <v>26</v>
       </c>
       <c r="AB34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
         <v>7</v>
@@ -6620,13 +6620,13 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
         <v>19</v>
@@ -6641,16 +6641,16 @@
         <v>5.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
         <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS34" t="n">
         <v>151</v>
@@ -6665,7 +6665,7 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX34" t="n">
         <v>11</v>
@@ -6674,7 +6674,7 @@
         <v>19</v>
       </c>
       <c r="AZ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6727,7 +6727,7 @@
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -6736,7 +6736,7 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -6751,43 +6751,43 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R35" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S35" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V35" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X35" t="n">
         <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB35" t="n">
         <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD35" t="n">
         <v>6.5</v>
@@ -6799,7 +6799,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH35" t="n">
         <v>8.5</v>
@@ -6811,22 +6811,22 @@
         <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
         <v>17</v>
       </c>
       <c r="AM35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO35" t="n">
         <v>17</v>
       </c>
       <c r="AP35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ35" t="n">
         <v>51</v>
@@ -6838,7 +6838,7 @@
         <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
@@ -6850,7 +6850,7 @@
         <v>4.33</v>
       </c>
       <c r="AX35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY35" t="n">
         <v>21</v>
@@ -6862,7 +6862,7 @@
         <v>51</v>
       </c>
       <c r="BB35" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -6899,22 +6899,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J36" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K36" t="n">
         <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6923,16 +6923,16 @@
         <v>17</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S36" t="n">
         <v>1.29</v>
@@ -6947,7 +6947,7 @@
         <v>2.2</v>
       </c>
       <c r="W36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X36" t="n">
         <v>26</v>
@@ -6968,7 +6968,7 @@
         <v>17</v>
       </c>
       <c r="AD36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -7263,7 +7263,7 @@
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J38" t="n">
         <v>2.05</v>
@@ -7308,7 +7308,7 @@
         <v>7</v>
       </c>
       <c r="X38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7338,10 +7338,10 @@
         <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ38" t="n">
         <v>19</v>
@@ -7392,7 +7392,7 @@
         <v>34</v>
       </c>
       <c r="AZ38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA38" t="n">
         <v>126</v>
@@ -7435,22 +7435,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J39" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K39" t="n">
         <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
         <v>1.04</v>
@@ -7477,28 +7477,28 @@
         <v>3.25</v>
       </c>
       <c r="U39" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W39" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA39" t="n">
         <v>15</v>
       </c>
-      <c r="AA39" t="n">
-        <v>13</v>
-      </c>
       <c r="AB39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC39" t="n">
         <v>13</v>
@@ -7519,16 +7519,16 @@
         <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK39" t="n">
         <v>41</v>
       </c>
       <c r="AL39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
         <v>34</v>
@@ -7537,16 +7537,16 @@
         <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP39" t="n">
         <v>19</v>
       </c>
       <c r="AQ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS39" t="n">
         <v>126</v>
@@ -7613,13 +7613,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="H40" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I40" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="J40" t="n">
         <v>6.2</v>
@@ -7634,19 +7634,19 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="O40" t="n">
         <v>1.11</v>
       </c>
       <c r="P40" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="Q40" t="n">
         <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S40" t="n">
         <v>1.24</v>
@@ -7655,61 +7655,61 @@
         <v>3.6</v>
       </c>
       <c r="U40" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="V40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W40" t="n">
         <v>16.5</v>
       </c>
       <c r="X40" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y40" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z40" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA40" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AB40" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD40" t="n">
         <v>8</v>
       </c>
       <c r="AE40" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF40" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG40" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH40" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AI40" t="n">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="AJ40" t="n">
         <v>7.2</v>
       </c>
       <c r="AK40" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AL40" t="n">
         <v>9</v>
       </c>
       <c r="AM40" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AN40" t="n">
         <v>8.25</v>
@@ -7791,144 +7791,148 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="H41" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="J41" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K41" t="n">
         <v>2.22</v>
       </c>
       <c r="L41" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+        <v>4.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N41" t="n">
+        <v>8</v>
+      </c>
       <c r="O41" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>3.58</v>
+        <v>3.35</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S41" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T41" t="n">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="U41" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="V41" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="W41" t="n">
-        <v>7.4</v>
+        <v>6.2</v>
       </c>
       <c r="X41" t="n">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y41" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z41" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA41" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AB41" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AC41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD41" t="n">
         <v>6.4</v>
       </c>
       <c r="AE41" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AF41" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AG41" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AH41" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AI41" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AK41" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM41" t="n">
         <v>35</v>
       </c>
-      <c r="AL41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>24</v>
-      </c>
       <c r="AN41" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.25</v>
+        <v>7.8</v>
       </c>
       <c r="AP41" t="n">
         <v>17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AR41" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS41" t="n">
         <v>200</v>
       </c>
       <c r="AT41" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AU41" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW41" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="AX41" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="AY41" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ41" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="BA41" t="n">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="BB41" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -7989,10 +7993,10 @@
         <v>11.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P42" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Q42" t="n">
         <v>1.57</v>
@@ -8001,16 +8005,16 @@
         <v>2.12</v>
       </c>
       <c r="S42" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T42" t="n">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
       <c r="U42" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="V42" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W42" t="n">
         <v>12.5</v>
@@ -8145,22 +8149,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>2.27</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I43" t="n">
-        <v>3.2</v>
+        <v>2.87</v>
       </c>
       <c r="J43" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="K43" t="n">
         <v>2.07</v>
       </c>
       <c r="L43" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -8171,10 +8175,10 @@
         <v>3.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R43" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S43" t="n">
         <v>1.37</v>
@@ -8183,106 +8187,106 @@
         <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W43" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="X43" t="n">
-        <v>8.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AB43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
         <v>10</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AF43" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG43" t="n">
         <v>250</v>
       </c>
       <c r="AH43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI43" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ43" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK43" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AL43" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="AO43" t="n">
-        <v>10.75</v>
+        <v>11.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ43" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AR43" t="n">
         <v>70</v>
       </c>
       <c r="AS43" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>110</v>
+      </c>
+      <c r="BB43" t="n">
         <v>250</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>90</v>
-      </c>
-      <c r="BA43" t="n">
-        <v>120</v>
-      </c>
-      <c r="BB43" t="n">
-        <v>300</v>
       </c>
       <c r="BC43" t="inlineStr"/>
       <c r="BD43" t="inlineStr"/>
@@ -8337,10 +8341,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
@@ -8501,13 +8505,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="H45" t="n">
         <v>5.5</v>
       </c>
       <c r="I45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J45" t="n">
         <v>1.73</v>
@@ -8516,7 +8520,7 @@
         <v>2.63</v>
       </c>
       <c r="L45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -8525,16 +8529,16 @@
         <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R45" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S45" t="n">
         <v>1.29</v>
@@ -8543,16 +8547,16 @@
         <v>3.5</v>
       </c>
       <c r="U45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W45" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y45" t="n">
         <v>9</v>
@@ -8576,10 +8580,10 @@
         <v>21</v>
       </c>
       <c r="AF45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH45" t="n">
         <v>23</v>
@@ -8588,7 +8592,7 @@
         <v>51</v>
       </c>
       <c r="AJ45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK45" t="n">
         <v>126</v>
@@ -8597,7 +8601,7 @@
         <v>67</v>
       </c>
       <c r="AM45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN45" t="n">
         <v>3.25</v>
@@ -8615,7 +8619,7 @@
         <v>41</v>
       </c>
       <c r="AS45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT45" t="n">
         <v>3.5</v>
@@ -8639,16 +8643,16 @@
         <v>201</v>
       </c>
       <c r="BA45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB45" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC45" t="n">
         <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -8683,22 +8687,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H46" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J46" t="n">
         <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L46" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -8707,40 +8711,40 @@
         <v>17</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R46" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V46" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X46" t="n">
         <v>41</v>
       </c>
       <c r="Y46" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA46" t="n">
         <v>51</v>
@@ -8764,7 +8768,7 @@
         <v>201</v>
       </c>
       <c r="AH46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI46" t="n">
         <v>7.5</v>
@@ -8773,25 +8777,25 @@
         <v>8.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL46" t="n">
         <v>11</v>
       </c>
       <c r="AM46" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
         <v>9</v>
       </c>
       <c r="AO46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP46" t="n">
         <v>34</v>
       </c>
       <c r="AQ46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR46" t="n">
         <v>126</v>
@@ -8800,7 +8804,7 @@
         <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU46" t="n">
         <v>8.5</v>
@@ -8812,16 +8816,16 @@
         <v>3.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY46" t="n">
         <v>15</v>
       </c>
       <c r="AZ46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB46" t="n">
         <v>101</v>
@@ -8865,22 +8869,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H47" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="I47" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J47" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="K47" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L47" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8892,28 +8896,28 @@
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="Q47" t="n">
         <v>1.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="S47" t="n">
         <v>1.27</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U47" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V47" t="n">
         <v>2.02</v>
       </c>
       <c r="W47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X47" t="n">
         <v>7.8</v>
@@ -8922,7 +8926,7 @@
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA47" t="n">
         <v>10.5</v>
@@ -8937,7 +8941,7 @@
         <v>9.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF47" t="n">
         <v>60</v>
@@ -8946,61 +8950,61 @@
         <v>400</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK47" t="n">
         <v>150</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN47" t="n">
         <v>3.45</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AP47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AR47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS47" t="n">
         <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV47" t="n">
         <v>55</v>
       </c>
       <c r="AW47" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AX47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY47" t="n">
         <v>32</v>
       </c>
       <c r="AZ47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA47" t="n">
         <v>200</v>
@@ -9225,148 +9229,148 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="H49" t="n">
         <v>6.3</v>
       </c>
       <c r="I49" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="J49" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="K49" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="L49" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N49" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P49" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="R49" t="n">
-        <v>2.67</v>
+        <v>2.95</v>
       </c>
       <c r="S49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T49" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V49" t="n">
-        <v>1.72</v>
+        <v>1.87</v>
       </c>
       <c r="W49" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="X49" t="n">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="Y49" t="n">
         <v>10.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AA49" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH49" t="n">
         <v>30</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG49" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>28</v>
       </c>
       <c r="AI49" t="n">
         <v>120</v>
       </c>
       <c r="AJ49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AL49" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AM49" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="AO49" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AP49" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AQ49" t="n">
         <v>11</v>
       </c>
       <c r="AR49" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AS49" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AU49" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AW49" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AX49" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AY49" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AZ49" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BA49" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB49" t="n">
         <v>450</v>
-      </c>
-      <c r="BB49" t="n">
-        <v>500</v>
       </c>
       <c r="BC49" t="n">
         <v>51</v>
@@ -9410,43 +9414,43 @@
         <v>1.78</v>
       </c>
       <c r="H50" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
         <v>4.6</v>
       </c>
       <c r="J50" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L50" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>1.09</v>
       </c>
       <c r="N50" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="O50" t="n">
         <v>1.4</v>
       </c>
       <c r="P50" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R50" t="n">
         <v>1.62</v>
       </c>
       <c r="S50" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T50" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="U50" t="n">
         <v>2.02</v>
@@ -9455,7 +9459,7 @@
         <v>1.7</v>
       </c>
       <c r="W50" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X50" t="n">
         <v>7.5</v>
@@ -9467,13 +9471,13 @@
         <v>14</v>
       </c>
       <c r="AA50" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AB50" t="n">
         <v>35</v>
       </c>
       <c r="AC50" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD50" t="n">
         <v>6.5</v>
@@ -9488,7 +9492,7 @@
         <v>900</v>
       </c>
       <c r="AH50" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AI50" t="n">
         <v>24</v>
@@ -9500,22 +9504,22 @@
         <v>80</v>
       </c>
       <c r="AL50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN50" t="n">
         <v>3.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR50" t="n">
         <v>70</v>
@@ -9524,10 +9528,10 @@
         <v>300</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV50" t="n">
         <v>80</v>
@@ -9536,7 +9540,7 @@
         <v>6.2</v>
       </c>
       <c r="AX50" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY50" t="n">
         <v>35</v>
@@ -9545,7 +9549,7 @@
         <v>175</v>
       </c>
       <c r="BA50" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BB50" t="n">
         <v>500</v>
@@ -9589,22 +9593,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="K51" t="n">
         <v>1.98</v>
       </c>
       <c r="L51" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="M51" t="n">
         <v>1.07</v>
@@ -9616,7 +9620,7 @@
         <v>1.4</v>
       </c>
       <c r="P51" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q51" t="n">
         <v>2.15</v>
@@ -9637,16 +9641,16 @@
         <v>1.7</v>
       </c>
       <c r="W51" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X51" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Y51" t="n">
         <v>13</v>
       </c>
       <c r="Z51" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA51" t="n">
         <v>40</v>
@@ -9655,10 +9659,10 @@
         <v>50</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AD51" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE51" t="n">
         <v>16.5</v>
@@ -9673,13 +9677,13 @@
         <v>6</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AJ51" t="n">
         <v>8.75</v>
       </c>
       <c r="AK51" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL51" t="n">
         <v>18.5</v>
@@ -9691,10 +9695,10 @@
         <v>5.4</v>
       </c>
       <c r="AO51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP51" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ51" t="n">
         <v>120</v>
@@ -9706,7 +9710,7 @@
         <v>450</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="AU51" t="n">
         <v>7.4</v>
@@ -9715,7 +9719,7 @@
         <v>75</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AX51" t="n">
         <v>10.5</v>
@@ -9727,7 +9731,7 @@
         <v>40</v>
       </c>
       <c r="BA51" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB51" t="n">
         <v>300</v>
@@ -10127,40 +10131,40 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="I54" t="n">
-        <v>3.95</v>
+        <v>4.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>4.25</v>
+        <v>4.85</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O54" t="n">
         <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q54" t="n">
         <v>1.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S54" t="n">
         <v>1.3</v>
@@ -10169,73 +10173,73 @@
         <v>3.2</v>
       </c>
       <c r="U54" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="V54" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="W54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X54" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="Y54" t="n">
         <v>8.25</v>
       </c>
       <c r="Z54" t="n">
-        <v>13.5</v>
+        <v>11.75</v>
       </c>
       <c r="AA54" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD54" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE54" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AG54" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH54" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI54" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AM54" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="AP54" t="n">
         <v>15</v>
       </c>
       <c r="AQ54" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR54" t="n">
         <v>45</v>
@@ -10247,28 +10251,28 @@
         <v>3.2</v>
       </c>
       <c r="AU54" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AV54" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW54" t="n">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="AX54" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY54" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AZ54" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="BA54" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB54" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3.4</v>
@@ -762,13 +762,13 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -804,16 +804,16 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
         <v>21</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,7 +828,7 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -852,7 +852,7 @@
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.9</v>
@@ -1168,7 +1168,7 @@
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA4" t="n">
         <v>34</v>
@@ -1222,7 +1222,7 @@
         <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1317,16 +1317,16 @@
         <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S5" t="n">
         <v>1.2</v>
@@ -1440,7 +1440,7 @@
         <v>401</v>
       </c>
       <c r="BD5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6">
@@ -1481,7 +1481,7 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1.91</v>
@@ -1523,13 +1523,13 @@
         <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>10</v>
@@ -1553,7 +1553,7 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1568,16 +1568,16 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
         <v>19</v>
@@ -1804,7 +1804,7 @@
         <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1848,7 +1848,7 @@
         <v>7.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
         <v>2.6</v>
@@ -1863,10 +1863,10 @@
         <v>17</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q8" t="n">
         <v>1.53</v>
@@ -1875,16 +1875,16 @@
         <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
@@ -1947,7 +1947,7 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1956,7 +1956,7 @@
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1986,7 +1986,7 @@
         <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R9" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2221,10 +2221,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2385,82 +2385,82 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="J11" t="n">
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG11" t="n">
         <v>501</v>
@@ -2469,28 +2469,28 @@
         <v>15</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL11" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO11" t="n">
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
         <v>23</v>
@@ -2499,31 +2499,31 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA11" t="n">
         <v>251</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>301</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
         <v>2.5</v>
@@ -2597,10 +2597,10 @@
         <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2621,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
@@ -2636,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2645,10 +2645,10 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
@@ -2657,10 +2657,10 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
       <c r="AP12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
         <v>19</v>
@@ -2696,7 +2696,7 @@
         <v>8</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2749,91 +2749,91 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I13" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="J13" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
         <v>2.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.5</v>
       </c>
       <c r="AE13" t="n">
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -2842,31 +2842,31 @@
         <v>41</v>
       </c>
       <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>29</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AR13" t="n">
         <v>41</v>
       </c>
-      <c r="AN13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>51</v>
-      </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,10 +2875,10 @@
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -2890,7 +2890,7 @@
         <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2942,13 +2942,13 @@
         <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
@@ -2969,10 +2969,10 @@
         <v>4.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>11</v>
@@ -2996,7 +2996,7 @@
         <v>23</v>
       </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE14" t="n">
         <v>41</v>
@@ -3038,7 +3038,7 @@
         <v>8.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS14" t="n">
         <v>126</v>
@@ -3053,7 +3053,7 @@
         <v>81</v>
       </c>
       <c r="AW14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX14" t="n">
         <v>81</v>
@@ -3106,7 +3106,7 @@
         <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I15" t="n">
         <v>2.6</v>
@@ -3115,28 +3115,28 @@
         <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3145,31 +3145,31 @@
         <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
         <v>13</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6</v>
@@ -3181,10 +3181,10 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3196,10 +3196,10 @@
         <v>26</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
         <v>4.75</v>
@@ -3214,7 +3214,7 @@
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
         <v>201</v>
@@ -3223,7 +3223,7 @@
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3235,16 +3235,16 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3377,7 +3377,7 @@
         <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
         <v>4.75</v>
@@ -3463,13 +3463,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3487,16 +3487,16 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3511,10 +3511,10 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -3523,7 +3523,7 @@
         <v>41</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
@@ -3541,7 +3541,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
         <v>8</v>
@@ -3645,91 +3645,91 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
         <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.95</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
         <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>13</v>
@@ -3762,10 +3762,10 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3777,7 +3777,7 @@
         <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
         <v>81</v>
@@ -3786,7 +3786,7 @@
         <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -3851,16 +3851,16 @@
         <v>8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
         <v>1.44</v>
@@ -4191,40 +4191,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4239,10 +4239,10 @@
         <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
         <v>13</v>
@@ -4251,13 +4251,13 @@
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD21" t="n">
         <v>6.5</v>
@@ -4272,7 +4272,7 @@
         <v>251</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI21" t="n">
         <v>9.5</v>
@@ -4281,7 +4281,7 @@
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>17</v>
@@ -4302,7 +4302,7 @@
         <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS21" t="n">
         <v>201</v>
@@ -4320,10 +4320,10 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
@@ -4373,106 +4373,106 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
         <v>29</v>
       </c>
-      <c r="AA22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>34</v>
-      </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK22" t="n">
         <v>26</v>
       </c>
       <c r="AL22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO22" t="n">
         <v>15</v>
@@ -4484,16 +4484,16 @@
         <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4505,16 +4505,16 @@
         <v>15</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
         <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
         <v>126</v>
@@ -4558,10 +4558,10 @@
         <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J23" t="n">
         <v>2.3</v>
@@ -4591,19 +4591,19 @@
         <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>6</v>
@@ -4624,10 +4624,10 @@
         <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
         <v>101</v>
@@ -4636,7 +4636,7 @@
         <v>101</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4672,13 +4672,13 @@
         <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
         <v>11</v>
       </c>
       <c r="AV23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="n">
         <v>7.5</v>
@@ -4690,7 +4690,7 @@
         <v>51</v>
       </c>
       <c r="AZ23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA23" t="n">
         <v>251</v>
@@ -4734,52 +4734,52 @@
         <v>6.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J24" t="n">
         <v>6.5</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X24" t="n">
         <v>29</v>
@@ -4794,13 +4794,13 @@
         <v>51</v>
       </c>
       <c r="AB24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4812,7 +4812,7 @@
         <v>1250</v>
       </c>
       <c r="AH24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
         <v>6.5</v>
@@ -4824,10 +4824,10 @@
         <v>11</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
         <v>7.5</v>
@@ -4848,31 +4848,31 @@
         <v>351</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW24" t="n">
         <v>3.4</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY24" t="n">
         <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
         <v>51</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC24" t="inlineStr"/>
       <c r="BD24" t="inlineStr"/>
@@ -5085,22 +5085,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5139,7 +5139,7 @@
         <v>11</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>23</v>
@@ -5170,7 +5170,7 @@
         <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
         <v>34</v>
@@ -5209,7 +5209,7 @@
         <v>67</v>
       </c>
       <c r="AW26" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX26" t="n">
         <v>19</v>
@@ -5447,28 +5447,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -5477,10 +5477,10 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
         <v>1.53</v>
@@ -5489,16 +5489,16 @@
         <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V28" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>13</v>
@@ -5513,40 +5513,40 @@
         <v>41</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ28" t="n">
         <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM28" t="n">
         <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
@@ -5555,10 +5555,10 @@
         <v>34</v>
       </c>
       <c r="AQ28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS28" t="n">
         <v>301</v>
@@ -5576,7 +5576,7 @@
         <v>4</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5585,10 +5585,10 @@
         <v>41</v>
       </c>
       <c r="BA28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5629,13 +5629,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J29" t="n">
         <v>4</v>
@@ -5644,13 +5644,13 @@
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
         <v>1.33</v>
@@ -5677,7 +5677,7 @@
         <v>1.95</v>
       </c>
       <c r="W29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X29" t="n">
         <v>17</v>
@@ -5686,7 +5686,7 @@
         <v>12</v>
       </c>
       <c r="Z29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA29" t="n">
         <v>29</v>
@@ -5716,7 +5716,7 @@
         <v>10</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK29" t="n">
         <v>21</v>
@@ -5755,10 +5755,10 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY29" t="n">
         <v>23</v>
@@ -6011,10 +6011,10 @@
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
         <v>1.29</v>
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H33" t="n">
         <v>4.75</v>
       </c>
       <c r="I33" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J33" t="n">
         <v>1.95</v>
@@ -6408,7 +6408,7 @@
         <v>10</v>
       </c>
       <c r="X33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y33" t="n">
         <v>8.5</v>
@@ -6453,7 +6453,7 @@
         <v>41</v>
       </c>
       <c r="AM33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN33" t="n">
         <v>3.75</v>
@@ -6477,13 +6477,13 @@
         <v>3.75</v>
       </c>
       <c r="AU33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV33" t="n">
         <v>41</v>
       </c>
       <c r="AW33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX33" t="n">
         <v>29</v>
@@ -6492,10 +6492,10 @@
         <v>29</v>
       </c>
       <c r="AZ33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA33" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
         <v>151</v>
@@ -6721,13 +6721,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -6736,7 +6736,7 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -6757,34 +6757,34 @@
         <v>1.98</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X35" t="n">
         <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
@@ -6811,7 +6811,7 @@
         <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="n">
         <v>17</v>
@@ -6820,7 +6820,7 @@
         <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO35" t="n">
         <v>17</v>
@@ -6832,13 +6832,13 @@
         <v>51</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS35" t="n">
         <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU35" t="n">
         <v>7.5</v>
@@ -6899,13 +6899,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H36" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J36" t="n">
         <v>4.75</v>
@@ -6935,22 +6935,22 @@
         <v>2.3</v>
       </c>
       <c r="S36" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V36" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W36" t="n">
         <v>15</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y36" t="n">
         <v>15</v>
@@ -6998,7 +6998,7 @@
         <v>21</v>
       </c>
       <c r="AN36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO36" t="n">
         <v>23</v>
@@ -7016,7 +7016,7 @@
         <v>151</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU36" t="n">
         <v>7.5</v>
@@ -7028,13 +7028,13 @@
         <v>3.75</v>
       </c>
       <c r="AX36" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY36" t="n">
         <v>17</v>
       </c>
       <c r="AZ36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA36" t="n">
         <v>41</v>
@@ -7613,13 +7613,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I40" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="J40" t="n">
         <v>6.2</v>
@@ -7634,13 +7634,13 @@
         <v>1.01</v>
       </c>
       <c r="N40" t="n">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="O40" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="n">
         <v>1.53</v>
@@ -7649,43 +7649,43 @@
         <v>2.2</v>
       </c>
       <c r="S40" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="T40" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="U40" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="V40" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="W40" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="X40" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="Y40" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Z40" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="AA40" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="AB40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC40" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD40" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
         <v>50</v>
@@ -7694,22 +7694,22 @@
         <v>300</v>
       </c>
       <c r="AH40" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AI40" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="AJ40" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AK40" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="AL40" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AM40" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AN40" t="n">
         <v>8.25</v>
@@ -7791,115 +7791,115 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H41" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J41" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.18</v>
       </c>
-      <c r="K41" t="n">
-        <v>2.22</v>
-      </c>
       <c r="L41" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="M41" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O41" t="n">
         <v>1.22</v>
       </c>
       <c r="P41" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R41" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S41" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T41" t="n">
-        <v>3.04</v>
+        <v>3.14</v>
       </c>
       <c r="U41" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V41" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W41" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="X41" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Y41" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Z41" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
         <v>10.75</v>
       </c>
       <c r="AB41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
         <v>11</v>
       </c>
       <c r="AD41" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG41" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH41" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AI41" t="n">
         <v>20</v>
       </c>
       <c r="AJ41" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK41" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL41" t="n">
         <v>32</v>
       </c>
       <c r="AM41" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AO41" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AP41" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ41" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR41" t="n">
         <v>55</v>
@@ -7911,19 +7911,19 @@
         <v>2.85</v>
       </c>
       <c r="AU41" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV41" t="n">
         <v>65</v>
       </c>
       <c r="AW41" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AX41" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY41" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ41" t="n">
         <v>150</v>
@@ -7932,7 +7932,7 @@
         <v>175</v>
       </c>
       <c r="BB41" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
@@ -7969,22 +7969,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="H42" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I42" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="J42" t="n">
-        <v>4.05</v>
+        <v>3.75</v>
       </c>
       <c r="K42" t="n">
         <v>2.25</v>
       </c>
       <c r="L42" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -7993,118 +7993,118 @@
         <v>11.9</v>
       </c>
       <c r="O42" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P42" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R42" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T42" t="n">
-        <v>3.46</v>
+        <v>3.42</v>
       </c>
       <c r="U42" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="V42" t="n">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="W42" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="X42" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y42" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Z42" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>120</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AV42" t="n">
         <v>45</v>
       </c>
-      <c r="AA42" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>16</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>50</v>
-      </c>
       <c r="AW42" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="AX42" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AY42" t="n">
         <v>15</v>
       </c>
       <c r="AZ42" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA42" t="n">
         <v>50</v>
@@ -8149,22 +8149,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="H43" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="K43" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -8175,10 +8175,10 @@
         <v>3.44</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="R43" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S43" t="n">
         <v>1.37</v>
@@ -8187,37 +8187,37 @@
         <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V43" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="X43" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC43" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AD43" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF43" t="n">
         <v>37</v>
@@ -8226,31 +8226,31 @@
         <v>250</v>
       </c>
       <c r="AH43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI43" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AJ43" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK43" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL43" t="n">
         <v>19.5</v>
       </c>
       <c r="AM43" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP43" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>45</v>
@@ -8262,28 +8262,28 @@
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV43" t="n">
         <v>55</v>
       </c>
       <c r="AW43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX43" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ43" t="n">
         <v>75</v>
       </c>
       <c r="BA43" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BB43" t="n">
         <v>250</v>
@@ -8326,16 +8326,16 @@
         <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
         <v>2.63</v>
       </c>
       <c r="K44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L44" t="n">
         <v>4</v>
@@ -8353,7 +8353,7 @@
         <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R44" t="n">
         <v>2</v>
@@ -8365,13 +8365,13 @@
         <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
         <v>10</v>
@@ -8380,7 +8380,7 @@
         <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
@@ -8389,7 +8389,7 @@
         <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD44" t="n">
         <v>6.5</v>
@@ -8401,7 +8401,7 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH44" t="n">
         <v>12</v>
@@ -8416,7 +8416,7 @@
         <v>41</v>
       </c>
       <c r="AL44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM44" t="n">
         <v>34</v>
@@ -8428,7 +8428,7 @@
         <v>11</v>
       </c>
       <c r="AP44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ44" t="n">
         <v>34</v>
@@ -8458,7 +8458,7 @@
         <v>26</v>
       </c>
       <c r="AZ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA44" t="n">
         <v>81</v>
@@ -8517,16 +8517,16 @@
         <v>1.73</v>
       </c>
       <c r="K45" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L45" t="n">
         <v>8.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8547,10 +8547,10 @@
         <v>3.5</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V45" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W45" t="n">
         <v>7.5</v>
@@ -8568,22 +8568,22 @@
         <v>11</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
         <v>10</v>
       </c>
       <c r="AE45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF45" t="n">
         <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH45" t="n">
         <v>23</v>
@@ -8604,7 +8604,7 @@
         <v>67</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO45" t="n">
         <v>6</v>
@@ -8625,10 +8625,10 @@
         <v>3.5</v>
       </c>
       <c r="AU45" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW45" t="n">
         <v>10</v>
@@ -8699,16 +8699,16 @@
         <v>7</v>
       </c>
       <c r="K46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O46" t="n">
         <v>1.14</v>
@@ -8717,10 +8717,10 @@
         <v>5.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R46" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S46" t="n">
         <v>1.25</v>
@@ -8756,7 +8756,7 @@
         <v>17</v>
       </c>
       <c r="AD46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE46" t="n">
         <v>17</v>
@@ -8768,7 +8768,7 @@
         <v>201</v>
       </c>
       <c r="AH46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI46" t="n">
         <v>7.5</v>
@@ -8786,7 +8786,7 @@
         <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO46" t="n">
         <v>41</v>
@@ -8869,22 +8869,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="H47" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K47" t="n">
         <v>2.55</v>
       </c>
       <c r="L47" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8896,13 +8896,13 @@
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="R47" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="S47" t="n">
         <v>1.27</v>
@@ -8914,13 +8914,13 @@
         <v>1.72</v>
       </c>
       <c r="V47" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W47" t="n">
         <v>9</v>
       </c>
       <c r="X47" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -8941,7 +8941,7 @@
         <v>9.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF47" t="n">
         <v>60</v>
@@ -8950,37 +8950,37 @@
         <v>400</v>
       </c>
       <c r="AH47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK47" t="n">
         <v>150</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN47" t="n">
         <v>3.45</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AP47" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AQ47" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS47" t="n">
         <v>150</v>
@@ -8989,22 +8989,22 @@
         <v>3.45</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
         <v>55</v>
       </c>
       <c r="AW47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AX47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AY47" t="n">
         <v>32</v>
       </c>
       <c r="AZ47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA47" t="n">
         <v>200</v>
@@ -9054,16 +9054,16 @@
         <v>1.17</v>
       </c>
       <c r="H48" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="J48" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="L48" t="n">
         <v>9</v>
@@ -9075,10 +9075,10 @@
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P48" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="Q48" t="n">
         <v>1.34</v>
@@ -9090,13 +9090,13 @@
         <v>1.21</v>
       </c>
       <c r="T48" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V48" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
         <v>10.75</v>
@@ -9105,10 +9105,10 @@
         <v>7.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AA48" t="n">
         <v>10</v>
@@ -9117,10 +9117,10 @@
         <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD48" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE48" t="n">
         <v>25</v>
@@ -9135,7 +9135,7 @@
         <v>45</v>
       </c>
       <c r="AI48" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AJ48" t="n">
         <v>40</v>
@@ -9168,7 +9168,7 @@
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AU48" t="n">
         <v>9</v>
@@ -9180,7 +9180,7 @@
         <v>12.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AY48" t="n">
         <v>50</v>
@@ -9189,7 +9189,7 @@
         <v>500</v>
       </c>
       <c r="BA48" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB48" t="n">
         <v>500</v>
@@ -9232,19 +9232,19 @@
         <v>1.21</v>
       </c>
       <c r="H49" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="I49" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="J49" t="n">
         <v>1.57</v>
       </c>
       <c r="K49" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="L49" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="M49" t="n">
         <v>1.02</v>
@@ -9274,10 +9274,10 @@
         <v>1.83</v>
       </c>
       <c r="V49" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W49" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
         <v>8</v>
@@ -9313,13 +9313,13 @@
         <v>30</v>
       </c>
       <c r="AI49" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ49" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK49" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL49" t="n">
         <v>150</v>
@@ -9349,16 +9349,16 @@
         <v>4</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV49" t="n">
         <v>65</v>
       </c>
       <c r="AW49" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AX49" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AY49" t="n">
         <v>45</v>
@@ -9411,148 +9411,148 @@
         </is>
       </c>
       <c r="G50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N50" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V50" t="n">
         <v>1.78</v>
       </c>
-      <c r="H50" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N50" t="n">
+      <c r="W50" t="n">
         <v>6.2</v>
       </c>
-      <c r="O50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P50" t="n">
+      <c r="X50" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT50" t="n">
         <v>2.72</v>
       </c>
-      <c r="Q50" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U50" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W50" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="AU50" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH50" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AI50" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK50" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL50" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>20</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR50" t="n">
+      <c r="AV50" t="n">
         <v>70</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>80</v>
       </c>
       <c r="AW50" t="n">
         <v>6.2</v>
       </c>
       <c r="AX50" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AY50" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AZ50" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA50" t="n">
         <v>175</v>
       </c>
-      <c r="BA50" t="n">
-        <v>250</v>
-      </c>
       <c r="BB50" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC50" t="n">
         <v>51</v>
@@ -9593,13 +9593,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H51" t="n">
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J51" t="n">
         <v>4.25</v>
@@ -9611,10 +9611,10 @@
         <v>2.62</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>8.300000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="O51" t="n">
         <v>1.4</v>
@@ -9635,22 +9635,22 @@
         <v>2.37</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V51" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W51" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X51" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y51" t="n">
         <v>13</v>
       </c>
       <c r="Z51" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA51" t="n">
         <v>40</v>
@@ -9659,10 +9659,10 @@
         <v>50</v>
       </c>
       <c r="AC51" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD51" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE51" t="n">
         <v>16.5</v>
@@ -9674,19 +9674,19 @@
         <v>900</v>
       </c>
       <c r="AH51" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AJ51" t="n">
         <v>8.75</v>
       </c>
       <c r="AK51" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AL51" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM51" t="n">
         <v>35</v>
@@ -9719,7 +9719,7 @@
         <v>75</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AX51" t="n">
         <v>10.5</v>
@@ -9731,7 +9731,7 @@
         <v>40</v>
       </c>
       <c r="BA51" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB51" t="n">
         <v>300</v>
@@ -9955,40 +9955,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="H53" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J53" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="K53" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
       </c>
       <c r="N53" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P53" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R53" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S53" t="n">
         <v>1.34</v>
@@ -9997,16 +9997,16 @@
         <v>3</v>
       </c>
       <c r="U53" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V53" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W53" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="X53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Y53" t="n">
         <v>21</v>
@@ -10015,16 +10015,16 @@
         <v>150</v>
       </c>
       <c r="AA53" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="n">
         <v>70</v>
       </c>
-      <c r="AB53" t="n">
-        <v>65</v>
-      </c>
       <c r="AC53" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE53" t="n">
         <v>19.5</v>
@@ -10036,7 +10036,7 @@
         <v>700</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AI53" t="n">
         <v>6.7</v>
@@ -10045,19 +10045,19 @@
         <v>8.25</v>
       </c>
       <c r="AK53" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AL53" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AO53" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP53" t="n">
         <v>40</v>
@@ -10068,7 +10068,9 @@
       <c r="AR53" t="n">
         <v>300</v>
       </c>
-      <c r="AS53" t="inlineStr"/>
+      <c r="AS53" t="n">
+        <v>500</v>
+      </c>
       <c r="AT53" t="n">
         <v>3</v>
       </c>
@@ -10082,16 +10084,16 @@
         <v>3.25</v>
       </c>
       <c r="AX53" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AY53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ53" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA53" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB53" t="n">
         <v>250</v>
@@ -10131,19 +10133,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="I54" t="n">
         <v>4.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K54" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L54" t="n">
         <v>4.85</v>
@@ -10152,37 +10154,37 @@
         <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O54" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P54" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R54" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T54" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U54" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V54" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X54" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Y54" t="n">
         <v>8.25</v>
@@ -10194,10 +10196,10 @@
         <v>11.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC54" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
         <v>8.25</v>
@@ -10206,16 +10208,16 @@
         <v>15.5</v>
       </c>
       <c r="AF54" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG54" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH54" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
         <v>15.5</v>
@@ -10227,19 +10229,19 @@
         <v>45</v>
       </c>
       <c r="AM54" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AP54" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR54" t="n">
         <v>45</v>
@@ -10248,7 +10250,7 @@
         <v>175</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU54" t="n">
         <v>7.4</v>
@@ -10263,7 +10265,7 @@
         <v>26</v>
       </c>
       <c r="AY54" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ54" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -762,7 +762,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -789,25 +789,25 @@
         <v>2.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -828,7 +828,7 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -840,13 +840,13 @@
         <v>41</v>
       </c>
       <c r="AL2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>41</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -873,16 +873,16 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA2" t="n">
         <v>81</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -977,7 +977,7 @@
         <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>8</v>
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
@@ -1296,10 +1296,10 @@
         <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -1308,7 +1308,7 @@
         <v>2.88</v>
       </c>
       <c r="L5" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1347,10 +1347,10 @@
         <v>51</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AA5" t="n">
         <v>51</v>
@@ -1359,10 +1359,10 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
@@ -1374,13 +1374,13 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
@@ -1392,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1428,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="AZ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>29</v>
@@ -1437,7 +1437,7 @@
         <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD5" t="n">
         <v>160</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J7" t="n">
         <v>2.38</v>
       </c>
       <c r="K7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L7" t="n">
         <v>4.33</v>
@@ -1687,28 +1687,28 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S7" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
@@ -1720,10 +1720,10 @@
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
@@ -1738,10 +1738,10 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1774,7 +1774,7 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
         <v>7.5</v>
@@ -1798,10 +1798,10 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>160</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
         <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1875,16 +1875,16 @@
         <v>2.4</v>
       </c>
       <c r="S8" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
@@ -1905,13 +1905,13 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1920,7 +1920,7 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1932,22 +1932,22 @@
         <v>81</v>
       </c>
       <c r="AL8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1956,16 +1956,16 @@
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>34</v>
@@ -1974,10 +1974,10 @@
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -1986,7 +1986,7 @@
         <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H11" t="n">
         <v>4.33</v>
@@ -2403,10 +2403,10 @@
         <v>7.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -2427,10 +2427,10 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
@@ -2439,10 +2439,10 @@
         <v>6</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2451,7 +2451,7 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
         <v>8.5</v>
@@ -2481,13 +2481,13 @@
         <v>51</v>
       </c>
       <c r="AM11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN11" t="n">
         <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2520,13 +2520,13 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA11" t="n">
         <v>201</v>
       </c>
-      <c r="BA11" t="n">
-        <v>251</v>
-      </c>
       <c r="BB11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
@@ -2579,7 +2579,7 @@
         <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
         <v>6</v>
@@ -2588,7 +2588,7 @@
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -2609,10 +2609,10 @@
         <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
@@ -2633,7 +2633,7 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
         <v>9</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H13" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2791,22 +2791,22 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
+        <v>8</v>
+      </c>
+      <c r="X13" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
@@ -2830,34 +2830,34 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
         <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2884,13 +2884,13 @@
         <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2948,7 +2948,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
@@ -2957,10 +2957,10 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.18</v>
@@ -2990,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
         <v>23</v>
@@ -3014,7 +3014,7 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="n">
         <v>351</v>
@@ -3038,7 +3038,7 @@
         <v>8.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS14" t="n">
         <v>126</v>
@@ -3050,7 +3050,7 @@
         <v>13</v>
       </c>
       <c r="AV14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
         <v>17</v>
@@ -3059,7 +3059,7 @@
         <v>81</v>
       </c>
       <c r="AY14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
         <v>351</v>
@@ -3103,40 +3103,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3151,28 +3151,28 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>11</v>
       </c>
       <c r="Z15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA15" t="n">
         <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
         <v>15</v>
@@ -3181,31 +3181,31 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3223,28 +3223,28 @@
         <v>2.63</v>
       </c>
       <c r="AU15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3481,22 +3481,22 @@
         <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.89</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.01</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3514,7 +3514,7 @@
         <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -3532,7 +3532,7 @@
         <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3607,7 +3607,7 @@
         <v>151</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="BD17" t="n">
         <v>126</v>
@@ -3645,13 +3645,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>2.5</v>
@@ -3696,7 +3696,7 @@
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3711,7 +3711,7 @@
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3827,22 +3827,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.08</v>
@@ -3863,22 +3863,22 @@
         <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
         <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
         <v>9.5</v>
@@ -3887,13 +3887,13 @@
         <v>21</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3932,7 +3932,7 @@
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ19" t="n">
         <v>41</v>
@@ -3944,13 +3944,13 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU19" t="n">
         <v>8.5</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="n">
         <v>5</v>
@@ -4215,10 +4215,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
         <v>2.08</v>
@@ -4403,10 +4403,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="R22" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J24" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
@@ -4755,28 +4755,28 @@
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.57</v>
       </c>
       <c r="W24" t="n">
         <v>12</v>
@@ -4788,7 +4788,7 @@
         <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA24" t="n">
         <v>51</v>
@@ -4800,13 +4800,13 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG24" t="n">
         <v>1250</v>
@@ -4815,13 +4815,13 @@
         <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4830,46 +4830,46 @@
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR24" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS24" t="n">
         <v>351</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV24" t="n">
         <v>81</v>
       </c>
       <c r="AW24" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX24" t="n">
         <v>8.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
         <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
         <v>251</v>
@@ -4939,10 +4939,10 @@
         <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R25" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -5085,13 +5085,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H26" t="n">
         <v>2.88</v>
       </c>
       <c r="I26" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>3.4</v>
@@ -5133,7 +5133,7 @@
         <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
         <v>11</v>
@@ -5142,10 +5142,10 @@
         <v>11</v>
       </c>
       <c r="Z26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -5164,16 +5164,16 @@
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ26" t="n">
         <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
         <v>29</v>
@@ -5182,7 +5182,7 @@
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO26" t="n">
         <v>15</v>
@@ -5197,7 +5197,7 @@
         <v>81</v>
       </c>
       <c r="AS26" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT26" t="n">
         <v>2.25</v>
@@ -5218,7 +5218,7 @@
         <v>34</v>
       </c>
       <c r="AZ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA26" t="n">
         <v>101</v>
@@ -5465,10 +5465,10 @@
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -5477,10 +5477,10 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
         <v>1.53</v>
@@ -5659,10 +5659,10 @@
         <v>3.25</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
         <v>1.44</v>
@@ -5832,7 +5832,7 @@
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -5841,10 +5841,10 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S30" t="n">
         <v>1.29</v>
@@ -5993,40 +5993,40 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H31" t="n">
         <v>3.25</v>
       </c>
       <c r="I31" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
@@ -6044,13 +6044,13 @@
         <v>8</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y31" t="n">
         <v>9.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
         <v>19</v>
@@ -6071,10 +6071,10 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>15</v>
@@ -6092,7 +6092,7 @@
         <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO31" t="n">
         <v>13</v>
@@ -6134,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC31" t="n">
         <v>81</v>
@@ -6199,19 +6199,19 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R32" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T32" t="n">
         <v>3</v>
@@ -6357,22 +6357,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L33" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6387,13 +6387,13 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T33" t="n">
         <v>3.75</v>
@@ -6414,7 +6414,7 @@
         <v>8.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA33" t="n">
         <v>11</v>
@@ -6426,7 +6426,7 @@
         <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE33" t="n">
         <v>15</v>
@@ -6438,16 +6438,16 @@
         <v>151</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ33" t="n">
         <v>17</v>
       </c>
       <c r="AK33" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL33" t="n">
         <v>41</v>
@@ -6459,16 +6459,16 @@
         <v>3.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP33" t="n">
         <v>15</v>
       </c>
       <c r="AQ33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS33" t="n">
         <v>81</v>
@@ -6486,10 +6486,10 @@
         <v>7.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
         <v>81</v>
@@ -6569,13 +6569,13 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
         <v>3</v>
@@ -6899,22 +6899,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H36" t="n">
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J36" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K36" t="n">
         <v>2.4</v>
       </c>
       <c r="L36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
@@ -6941,10 +6941,10 @@
         <v>3.4</v>
       </c>
       <c r="U36" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
         <v>15</v>
@@ -6953,16 +6953,16 @@
         <v>23</v>
       </c>
       <c r="Y36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z36" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
         <v>17</v>
@@ -6980,19 +6980,19 @@
         <v>151</v>
       </c>
       <c r="AH36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.5</v>
       </c>
       <c r="AK36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL36" t="n">
         <v>13</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>12</v>
       </c>
       <c r="AM36" t="n">
         <v>21</v>
@@ -7007,7 +7007,7 @@
         <v>26</v>
       </c>
       <c r="AQ36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR36" t="n">
         <v>81</v>
@@ -7025,7 +7025,7 @@
         <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX36" t="n">
         <v>8.5</v>
@@ -7969,151 +7969,151 @@
         </is>
       </c>
       <c r="G42" t="n">
+        <v>3</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J42" t="n">
         <v>3.4</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K42" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L42" t="n">
-        <v>2.37</v>
+        <v>2.6</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="O42" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P42" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="R42" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="S42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T42" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="V42" t="n">
-        <v>2.41</v>
+        <v>2.28</v>
       </c>
       <c r="W42" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X42" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="Z42" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA42" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AG42" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI42" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK42" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AL42" t="n">
-        <v>11.25</v>
+        <v>12.5</v>
       </c>
       <c r="AM42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO42" t="n">
         <v>15.5</v>
       </c>
-      <c r="AN42" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>18</v>
-      </c>
       <c r="AP42" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AQ42" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AR42" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AS42" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT42" t="n">
         <v>3.25</v>
       </c>
       <c r="AU42" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AV42" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW42" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="AX42" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AY42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ42" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="BA42" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB42" t="n">
         <v>150</v>
       </c>
       <c r="BC42" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BD42" t="inlineStr"/>
     </row>
@@ -8149,30 +8149,34 @@
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K43" t="n">
         <v>2.12</v>
       </c>
-      <c r="H43" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L43" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
+        <v>3.55</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N43" t="n">
+        <v>13</v>
+      </c>
       <c r="O43" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P43" t="n">
-        <v>3.44</v>
+        <v>3.75</v>
       </c>
       <c r="Q43" t="n">
         <v>1.75</v>
@@ -8187,22 +8191,22 @@
         <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.64</v>
+        <v>1.74</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="W43" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X43" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y43" t="n">
         <v>7.4</v>
       </c>
       <c r="Z43" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA43" t="n">
         <v>13.5</v>
@@ -8217,10 +8221,10 @@
         <v>5.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF43" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG43" t="n">
         <v>250</v>
@@ -8238,22 +8242,22 @@
         <v>30</v>
       </c>
       <c r="AL43" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="n">
         <v>23</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AO43" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AP43" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AR43" t="n">
         <v>70</v>
@@ -8262,16 +8266,16 @@
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV43" t="n">
         <v>55</v>
       </c>
       <c r="AW43" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AX43" t="n">
         <v>16.5</v>
@@ -8323,13 +8327,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J44" t="n">
         <v>2.63</v>
@@ -8347,16 +8351,16 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S44" t="n">
         <v>1.36</v>
@@ -8371,16 +8375,16 @@
         <v>2.05</v>
       </c>
       <c r="W44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X44" t="n">
         <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
@@ -8401,7 +8405,7 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH44" t="n">
         <v>12</v>
@@ -8410,7 +8414,7 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
         <v>41</v>
@@ -8431,7 +8435,7 @@
         <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR44" t="n">
         <v>51</v>
@@ -8458,7 +8462,7 @@
         <v>26</v>
       </c>
       <c r="AZ44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA44" t="n">
         <v>81</v>
@@ -8505,7 +8509,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H45" t="n">
         <v>5.5</v>
@@ -8517,10 +8521,10 @@
         <v>1.73</v>
       </c>
       <c r="K45" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M45" t="n">
         <v>1.04</v>
@@ -8562,7 +8566,7 @@
         <v>9</v>
       </c>
       <c r="Z45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA45" t="n">
         <v>11</v>
@@ -8586,7 +8590,7 @@
         <v>401</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI45" t="n">
         <v>51</v>
@@ -8595,10 +8599,10 @@
         <v>29</v>
       </c>
       <c r="AK45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL45" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM45" t="n">
         <v>67</v>
@@ -8607,7 +8611,7 @@
         <v>3.2</v>
       </c>
       <c r="AO45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
@@ -9051,22 +9055,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H48" t="n">
         <v>6.1</v>
       </c>
       <c r="I48" t="n">
-        <v>11.75</v>
+        <v>13.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="L48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
@@ -9075,16 +9079,16 @@
         <v>10</v>
       </c>
       <c r="O48" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P48" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="S48" t="n">
         <v>1.21</v>
@@ -9093,7 +9097,7 @@
         <v>3.95</v>
       </c>
       <c r="U48" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V48" t="n">
         <v>1.83</v>
@@ -9102,13 +9106,13 @@
         <v>10.75</v>
       </c>
       <c r="X48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z48" t="n">
         <v>7.5</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>7.6</v>
       </c>
       <c r="AA48" t="n">
         <v>10</v>
@@ -9117,10 +9121,10 @@
         <v>25</v>
       </c>
       <c r="AC48" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE48" t="n">
         <v>25</v>
@@ -9129,22 +9133,22 @@
         <v>90</v>
       </c>
       <c r="AG48" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="n">
         <v>600</v>
       </c>
-      <c r="AH48" t="n">
-        <v>45</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>450</v>
-      </c>
       <c r="AL48" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM48" t="n">
         <v>100</v>
@@ -9171,16 +9175,16 @@
         <v>3.95</v>
       </c>
       <c r="AU48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW48" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AX48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AY48" t="n">
         <v>50</v>
@@ -9238,10 +9242,10 @@
         <v>11.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K49" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="L49" t="n">
         <v>8</v>
@@ -9256,43 +9260,43 @@
         <v>1.11</v>
       </c>
       <c r="P49" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="R49" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="S49" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="T49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="W49" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X49" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Y49" t="n">
         <v>10.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA49" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB49" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC49" t="n">
         <v>11.5</v>
@@ -9328,40 +9332,40 @@
         <v>90</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AO49" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AP49" t="n">
         <v>13</v>
       </c>
       <c r="AQ49" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AR49" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS49" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AT49" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW49" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AX49" t="n">
         <v>55</v>
       </c>
       <c r="AY49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ49" t="n">
         <v>400</v>
@@ -9414,43 +9418,43 @@
         <v>1.75</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="J50" t="n">
         <v>2.3</v>
       </c>
       <c r="K50" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L50" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="M50" t="n">
         <v>1.07</v>
       </c>
       <c r="N50" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R50" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T50" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U50" t="n">
         <v>1.93</v>
@@ -9459,7 +9463,7 @@
         <v>1.78</v>
       </c>
       <c r="W50" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X50" t="n">
         <v>7.6</v>
@@ -9477,13 +9481,13 @@
         <v>30</v>
       </c>
       <c r="AC50" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AE50" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
         <v>90</v>
@@ -9492,22 +9496,22 @@
         <v>800</v>
       </c>
       <c r="AH50" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AI50" t="n">
         <v>25</v>
       </c>
       <c r="AJ50" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK50" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN50" t="n">
         <v>3.55</v>
@@ -9528,31 +9532,31 @@
         <v>250</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AV50" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW50" t="n">
         <v>6.2</v>
       </c>
       <c r="AX50" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AY50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AZ50" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BA50" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BB50" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC50" t="n">
         <v>51</v>
@@ -9593,34 +9597,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I51" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="J51" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
         <v>1.98</v>
       </c>
       <c r="L51" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>8.35</v>
+        <v>8.25</v>
       </c>
       <c r="O51" t="n">
         <v>1.4</v>
       </c>
       <c r="P51" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="Q51" t="n">
         <v>2.15</v>
@@ -9644,19 +9648,19 @@
         <v>8.75</v>
       </c>
       <c r="X51" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y51" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA51" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AB51" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC51" t="n">
         <v>7.4</v>
@@ -9674,40 +9678,40 @@
         <v>900</v>
       </c>
       <c r="AH51" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI51" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ51" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK51" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AL51" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AM51" t="n">
         <v>35</v>
       </c>
       <c r="AN51" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AO51" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP51" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ51" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AR51" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AS51" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT51" t="n">
         <v>2.32</v>
@@ -9719,19 +9723,19 @@
         <v>75</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AX51" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AY51" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ51" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA51" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BB51" t="n">
         <v>300</v>
@@ -9955,22 +9959,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H53" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="I53" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="J53" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="K53" t="n">
         <v>2.4</v>
       </c>
       <c r="L53" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -9991,112 +9995,112 @@
         <v>2.1</v>
       </c>
       <c r="S53" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U53" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="V53" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W53" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="X53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Y53" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z53" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AA53" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB53" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AE53" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG53" t="n">
         <v>700</v>
       </c>
       <c r="AH53" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AI53" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AJ53" t="n">
         <v>8.25</v>
       </c>
       <c r="AK53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM53" t="n">
         <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP53" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AQ53" t="n">
         <v>250</v>
       </c>
       <c r="AR53" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AS53" t="n">
         <v>500</v>
       </c>
       <c r="AT53" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU53" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AV53" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW53" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AX53" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AY53" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ53" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA53" t="n">
         <v>45</v>
       </c>
       <c r="BB53" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC53" t="inlineStr"/>
       <c r="BD53" t="inlineStr"/>
@@ -10133,58 +10137,58 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H54" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I54" t="n">
         <v>4.7</v>
       </c>
       <c r="J54" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K54" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="L54" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
+        <v>9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W54" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X54" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T54" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U54" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V54" t="n">
-        <v>2</v>
-      </c>
-      <c r="W54" t="n">
-        <v>8</v>
-      </c>
-      <c r="X54" t="n">
-        <v>8</v>
       </c>
       <c r="Y54" t="n">
         <v>8.25</v>
@@ -10193,31 +10197,31 @@
         <v>11.75</v>
       </c>
       <c r="AA54" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC54" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD54" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD54" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AE54" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG54" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="AH54" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI54" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ54" t="n">
         <v>15.5</v>
@@ -10226,46 +10230,46 @@
         <v>80</v>
       </c>
       <c r="AL54" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM54" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ54" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR54" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS54" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU54" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV54" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW54" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AX54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY54" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ54" t="n">
         <v>150</v>
@@ -10274,7 +10278,7 @@
         <v>150</v>
       </c>
       <c r="BB54" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -750,7 +750,7 @@
         <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -765,28 +765,28 @@
         <v>4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -795,7 +795,7 @@
         <v>1.95</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>11</v>
@@ -807,13 +807,13 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -828,13 +828,13 @@
         <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>41</v>
@@ -858,13 +858,13 @@
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -953,10 +953,10 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.5</v>
@@ -971,19 +971,19 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1031,13 +1031,13 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1058,13 +1058,13 @@
         <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
       </c>
       <c r="AZ3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1153,25 +1153,25 @@
         <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W4" t="n">
         <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1180,10 +1180,10 @@
         <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1192,16 +1192,16 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1213,19 +1213,19 @@
         <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
         <v>67</v>
       </c>
-      <c r="AR4" t="n">
-        <v>81</v>
-      </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3.4</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1311,10 +1311,10 @@
         <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1323,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R5" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="S5" t="n">
         <v>1.2</v>
@@ -1481,13 +1481,13 @@
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
         <v>7</v>
@@ -1499,37 +1499,37 @@
         <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
+        <v>8</v>
+      </c>
+      <c r="X6" t="n">
         <v>7.5</v>
       </c>
-      <c r="X6" t="n">
-        <v>7</v>
-      </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>10</v>
@@ -1541,7 +1541,7 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
         <v>9.5</v>
@@ -1550,13 +1550,13 @@
         <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1568,19 +1568,19 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
         <v>6.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>19</v>
@@ -1592,7 +1592,7 @@
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1604,7 +1604,7 @@
         <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1616,7 +1616,7 @@
         <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1657,16 +1657,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
@@ -1699,25 +1699,25 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
         <v>21</v>
@@ -1726,7 +1726,7 @@
         <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1744,7 +1744,7 @@
         <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
         <v>21</v>
@@ -1801,10 +1801,10 @@
         <v>126</v>
       </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J8" t="n">
         <v>1.91</v>
@@ -1869,10 +1869,10 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.29</v>
@@ -1905,10 +1905,10 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>15</v>
@@ -1920,7 +1920,7 @@
         <v>151</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI8" t="n">
         <v>41</v>
@@ -1932,7 +1932,7 @@
         <v>81</v>
       </c>
       <c r="AL8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
@@ -1941,7 +1941,7 @@
         <v>3.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
         <v>15</v>
@@ -2039,22 +2039,22 @@
         <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R9" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2203,28 +2203,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="J10" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2245,19 +2245,19 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -2272,7 +2272,7 @@
         <v>7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2284,10 +2284,10 @@
         <v>501</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
@@ -2296,16 +2296,16 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM10" t="n">
         <v>41</v>
       </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2329,16 +2329,16 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
         <v>126</v>
@@ -2385,46 +2385,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="K11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.05</v>
-      </c>
       <c r="R11" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U11" t="n">
         <v>2.2</v>
@@ -2442,7 +2442,7 @@
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
@@ -2466,34 +2466,34 @@
         <v>501</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN11" t="n">
         <v>3.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2502,7 +2502,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU11" t="n">
         <v>10</v>
@@ -2520,19 +2520,19 @@
         <v>41</v>
       </c>
       <c r="AZ11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BA11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB11" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC11" t="n">
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2570,7 +2570,7 @@
         <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
         <v>7.5</v>
@@ -2591,10 +2591,10 @@
         <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
         <v>1.53</v>
@@ -2603,7 +2603,7 @@
         <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
         <v>3.5</v>
@@ -2615,13 +2615,13 @@
         <v>2.05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>8</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
         <v>10</v>
@@ -2660,7 +2660,7 @@
         <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2779,10 +2779,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2939,10 +2939,10 @@
         <v>1.36</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
@@ -2963,22 +2963,22 @@
         <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="T14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2993,16 +2993,16 @@
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD14" t="n">
         <v>19</v>
       </c>
       <c r="AE14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="n">
         <v>101</v>
@@ -3026,37 +3026,37 @@
         <v>101</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AR14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
         <v>17</v>
       </c>
       <c r="AX14" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AY14" t="n">
         <v>51</v>
@@ -3065,9 +3065,11 @@
         <v>351</v>
       </c>
       <c r="BA14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BB14" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>301</v>
+      </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -3103,13 +3105,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
@@ -3118,7 +3120,7 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3151,13 +3153,13 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -3187,7 +3189,7 @@
         <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
@@ -3205,10 +3207,10 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
@@ -3232,7 +3234,7 @@
         <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3281,28 +3283,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K16" t="n">
         <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3356,10 +3358,10 @@
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH16" t="n">
         <v>7</v>
@@ -3371,7 +3373,7 @@
         <v>10</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>23</v>
@@ -3392,7 +3394,7 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS16" t="n">
         <v>251</v>
@@ -3407,7 +3409,7 @@
         <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
         <v>15</v>
@@ -3481,22 +3483,22 @@
         <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.01</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.89</v>
       </c>
       <c r="S17" t="n">
         <v>1.4</v>
@@ -3514,7 +3516,7 @@
         <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
@@ -3523,7 +3525,7 @@
         <v>41</v>
       </c>
       <c r="AA17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>34</v>
@@ -3538,7 +3540,7 @@
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
         <v>201</v>
@@ -3577,13 +3579,13 @@
         <v>81</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
         <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3711,7 +3713,7 @@
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3729,7 +3731,7 @@
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>13</v>
@@ -3744,7 +3746,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3774,7 +3776,7 @@
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
@@ -4024,7 +4026,7 @@
         <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4057,7 +4059,7 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X20" t="n">
         <v>13</v>
@@ -4099,7 +4101,7 @@
         <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL20" t="n">
         <v>21</v>
@@ -4111,7 +4113,7 @@
         <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
@@ -4200,7 +4202,7 @@
         <v>2.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
@@ -4233,16 +4235,16 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
         <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y21" t="n">
         <v>13</v>
@@ -4260,7 +4262,7 @@
         <v>9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4269,10 +4271,10 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>9.5</v>
@@ -4302,10 +4304,10 @@
         <v>67</v>
       </c>
       <c r="AR21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT21" t="n">
         <v>2.63</v>
@@ -4329,7 +4331,7 @@
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
         <v>151</v>
@@ -4376,52 +4378,52 @@
         <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -4439,22 +4441,22 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>13</v>
@@ -4478,7 +4480,7 @@
         <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>51</v>
@@ -4487,19 +4489,19 @@
         <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
@@ -4731,7 +4733,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
@@ -4740,13 +4742,13 @@
         <v>1.57</v>
       </c>
       <c r="J24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
         <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M24" t="n">
         <v>1.08</v>
@@ -4755,28 +4757,28 @@
         <v>8</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P24" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.53</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.5</v>
       </c>
       <c r="W24" t="n">
         <v>12</v>
@@ -4803,10 +4805,10 @@
         <v>7.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="n">
         <v>1250</v>
@@ -4818,40 +4820,40 @@
         <v>6</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM24" t="n">
         <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
       </c>
       <c r="AP24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR24" t="n">
         <v>201</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>251</v>
       </c>
       <c r="AS24" t="n">
         <v>351</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV24" t="n">
         <v>81</v>
@@ -4863,13 +4865,13 @@
         <v>8.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB24" t="n">
         <v>251</v>
@@ -4909,13 +4911,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>5.25</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.8</v>
@@ -4924,25 +4926,25 @@
         <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="R25" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4963,7 +4965,7 @@
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
         <v>7.5</v>
@@ -4981,16 +4983,16 @@
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
@@ -5023,7 +5025,7 @@
         <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
         <v>3</v>
@@ -5044,7 +5046,7 @@
         <v>51</v>
       </c>
       <c r="AZ25" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA25" t="n">
         <v>301</v>
@@ -5085,16 +5087,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
         <v>1.91</v>
@@ -5103,16 +5105,16 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q26" t="n">
         <v>2.5</v>
@@ -5127,16 +5129,16 @@
         <v>2.25</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -5164,7 +5166,7 @@
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
         <v>13</v>
@@ -5185,7 +5187,7 @@
         <v>4.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP26" t="n">
         <v>29</v>
@@ -5194,7 +5196,7 @@
         <v>51</v>
       </c>
       <c r="AR26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS26" t="n">
         <v>301</v>
@@ -5212,7 +5214,7 @@
         <v>4.75</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY26" t="n">
         <v>34</v>
@@ -5295,10 +5297,10 @@
         <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S27" t="n">
         <v>1.53</v>
@@ -5447,28 +5449,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
         <v>1.95</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -5477,10 +5479,10 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S28" t="n">
         <v>1.53</v>
@@ -5489,10 +5491,10 @@
         <v>2.38</v>
       </c>
       <c r="U28" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W28" t="n">
         <v>8</v>
@@ -5501,13 +5503,13 @@
         <v>15</v>
       </c>
       <c r="Y28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB28" t="n">
         <v>41</v>
@@ -5519,22 +5521,22 @@
         <v>6</v>
       </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
         <v>67</v>
       </c>
       <c r="AG28" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK28" t="n">
         <v>21</v>
@@ -5549,7 +5551,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
         <v>34</v>
@@ -5573,16 +5575,16 @@
         <v>67</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX28" t="n">
         <v>13</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA28" t="n">
         <v>81</v>
@@ -5629,22 +5631,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H29" t="n">
         <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -5680,7 +5682,7 @@
         <v>9.5</v>
       </c>
       <c r="X29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
         <v>12</v>
@@ -5689,10 +5691,10 @@
         <v>34</v>
       </c>
       <c r="AA29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
         <v>8.5</v>
@@ -5713,7 +5715,7 @@
         <v>7.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ29" t="n">
         <v>9.5</v>
@@ -5731,13 +5733,13 @@
         <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR29" t="n">
         <v>81</v>
@@ -5770,7 +5772,7 @@
         <v>67</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC29" t="n">
         <v>501</v>
@@ -5811,13 +5813,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J30" t="n">
         <v>1.73</v>
@@ -5826,13 +5828,13 @@
         <v>2.6</v>
       </c>
       <c r="L30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -5841,10 +5843,10 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R30" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S30" t="n">
         <v>1.29</v>
@@ -5853,10 +5855,10 @@
         <v>3.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
         <v>8</v>
@@ -5865,34 +5867,34 @@
         <v>7</v>
       </c>
       <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>9</v>
       </c>
       <c r="AA30" t="n">
         <v>11</v>
       </c>
       <c r="AB30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
         <v>15</v>
       </c>
       <c r="AD30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI30" t="n">
         <v>41</v>
@@ -5996,7 +5998,7 @@
         <v>2.35</v>
       </c>
       <c r="H31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I31" t="n">
         <v>2.88</v>
@@ -6008,37 +6010,37 @@
         <v>2.1</v>
       </c>
       <c r="L31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P31" t="n">
         <v>3.5</v>
       </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>10</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q31" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W31" t="n">
         <v>8</v>
@@ -6059,10 +6061,10 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6110,7 +6112,7 @@
         <v>151</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU31" t="n">
         <v>8</v>
@@ -6119,7 +6121,7 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
@@ -6211,7 +6213,7 @@
         <v>2.05</v>
       </c>
       <c r="S32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T32" t="n">
         <v>3</v>
@@ -6357,22 +6359,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
         <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J33" t="n">
         <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6387,13 +6389,13 @@
         <v>5.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S33" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T33" t="n">
         <v>3.75</v>
@@ -6426,7 +6428,7 @@
         <v>19</v>
       </c>
       <c r="AD33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE33" t="n">
         <v>15</v>
@@ -6441,7 +6443,7 @@
         <v>19</v>
       </c>
       <c r="AI33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ33" t="n">
         <v>17</v>
@@ -6539,13 +6541,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>3.75</v>
@@ -6554,7 +6556,7 @@
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6569,13 +6571,13 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
         <v>3</v>
@@ -6596,7 +6598,7 @@
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="n">
         <v>26</v>
@@ -6641,7 +6643,7 @@
         <v>5.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP34" t="n">
         <v>23</v>
@@ -6674,7 +6676,7 @@
         <v>19</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6721,13 +6723,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -6736,7 +6738,7 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M35" t="n">
         <v>1.05</v>
@@ -6751,10 +6753,10 @@
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R35" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6775,16 +6777,16 @@
         <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC35" t="n">
         <v>11</v>
@@ -6811,7 +6813,7 @@
         <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
         <v>17</v>
@@ -6820,19 +6822,19 @@
         <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO35" t="n">
         <v>17</v>
       </c>
       <c r="AP35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ35" t="n">
         <v>51</v>
       </c>
       <c r="AR35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS35" t="n">
         <v>151</v>
@@ -6899,148 +6901,148 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="H36" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="J36" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L36" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="R36" t="n">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="S36" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V36" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W36" t="n">
         <v>15</v>
       </c>
       <c r="X36" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC36" t="n">
         <v>13</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>17</v>
       </c>
       <c r="AD36" t="n">
         <v>8.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG36" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH36" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI36" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AJ36" t="n">
         <v>8.5</v>
       </c>
       <c r="AK36" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AL36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ36" t="n">
         <v>23</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>26</v>
       </c>
       <c r="BA36" t="n">
         <v>41</v>
       </c>
       <c r="BB36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC36" t="n">
         <v>351</v>
@@ -7079,31 +7081,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
         <v>3.25</v>
@@ -7130,16 +7132,16 @@
         <v>8.5</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA37" t="n">
         <v>26</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>23</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
@@ -7157,19 +7159,19 @@
         <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH37" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
       </c>
       <c r="AK37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL37" t="n">
         <v>21</v>
@@ -7181,7 +7183,7 @@
         <v>4.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP37" t="n">
         <v>26</v>
@@ -7205,16 +7207,16 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA37" t="n">
         <v>67</v>
@@ -7257,10 +7259,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
         <v>5.75</v>
@@ -7269,19 +7271,19 @@
         <v>2.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L38" t="n">
         <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
         <v>12</v>
       </c>
       <c r="O38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
         <v>3.75</v>
@@ -7299,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V38" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W38" t="n">
         <v>7</v>
@@ -7314,7 +7316,7 @@
         <v>8.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA38" t="n">
         <v>12</v>
@@ -7326,10 +7328,10 @@
         <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
@@ -7338,7 +7340,7 @@
         <v>301</v>
       </c>
       <c r="AH38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI38" t="n">
         <v>34</v>
@@ -7356,7 +7358,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO38" t="n">
         <v>7.5</v>
@@ -7365,7 +7367,7 @@
         <v>19</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
@@ -7377,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV38" t="n">
         <v>51</v>
@@ -7389,13 +7391,13 @@
         <v>34</v>
       </c>
       <c r="AY38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ38" t="n">
         <v>126</v>
       </c>
       <c r="BA38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB38" t="n">
         <v>251</v>
@@ -7453,22 +7455,22 @@
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P39" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R39" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S39" t="n">
         <v>1.33</v>
@@ -8152,7 +8154,7 @@
         <v>2.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
         <v>3.05</v>
@@ -8161,22 +8163,18 @@
         <v>2.67</v>
       </c>
       <c r="K43" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L43" t="n">
         <v>3.55</v>
       </c>
-      <c r="M43" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N43" t="n">
-        <v>13</v>
-      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>3.91</v>
       </c>
       <c r="Q43" t="n">
         <v>1.75</v>
@@ -8191,37 +8189,37 @@
         <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="V43" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="W43" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="X43" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y43" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="Z43" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA43" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB43" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD43" t="n">
         <v>5.7</v>
       </c>
       <c r="AE43" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AF43" t="n">
         <v>40</v>
@@ -8230,7 +8228,7 @@
         <v>250</v>
       </c>
       <c r="AH43" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AI43" t="n">
         <v>14</v>
@@ -8245,16 +8243,16 @@
         <v>20</v>
       </c>
       <c r="AM43" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO43" t="n">
         <v>10.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ43" t="n">
         <v>40</v>
@@ -8266,10 +8264,10 @@
         <v>200</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU43" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV43" t="n">
         <v>55</v>
@@ -8278,16 +8276,16 @@
         <v>5.1</v>
       </c>
       <c r="AX43" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ43" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA43" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB43" t="n">
         <v>250</v>
@@ -8327,7 +8325,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
@@ -8336,7 +8334,7 @@
         <v>3.6</v>
       </c>
       <c r="J44" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
@@ -8357,16 +8355,16 @@
         <v>3.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R44" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U44" t="n">
         <v>1.7</v>
@@ -8375,7 +8373,7 @@
         <v>2.05</v>
       </c>
       <c r="W44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X44" t="n">
         <v>10</v>
@@ -8390,7 +8388,7 @@
         <v>15</v>
       </c>
       <c r="AB44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC44" t="n">
         <v>11</v>
@@ -8405,7 +8403,7 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH44" t="n">
         <v>12</v>
@@ -8414,7 +8412,7 @@
         <v>19</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
         <v>41</v>
@@ -8441,13 +8439,13 @@
         <v>51</v>
       </c>
       <c r="AS44" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU44" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8462,7 +8460,7 @@
         <v>26</v>
       </c>
       <c r="AZ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA44" t="n">
         <v>81</v>
@@ -8518,31 +8516,31 @@
         <v>12</v>
       </c>
       <c r="J45" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K45" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="L45" t="n">
         <v>9</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P45" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R45" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S45" t="n">
         <v>1.29</v>
@@ -8691,7 +8689,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H46" t="n">
         <v>5.25</v>
@@ -8706,7 +8704,7 @@
         <v>2.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
@@ -8733,13 +8731,13 @@
         <v>3.75</v>
       </c>
       <c r="U46" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X46" t="n">
         <v>41</v>
@@ -8757,7 +8755,7 @@
         <v>51</v>
       </c>
       <c r="AC46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD46" t="n">
         <v>10</v>
@@ -8766,40 +8764,40 @@
         <v>17</v>
       </c>
       <c r="AF46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH46" t="n">
         <v>9.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ46" t="n">
         <v>8.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM46" t="n">
         <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP46" t="n">
         <v>34</v>
       </c>
       <c r="AQ46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR46" t="n">
         <v>126</v>
@@ -8817,7 +8815,7 @@
         <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX46" t="n">
         <v>6</v>
@@ -8832,10 +8830,10 @@
         <v>34</v>
       </c>
       <c r="BB46" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC46" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD46" t="n">
         <v>151</v>
@@ -8873,22 +8871,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="I47" t="n">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="J47" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K47" t="n">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="L47" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8900,88 +8898,88 @@
         <v>1.16</v>
       </c>
       <c r="P47" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S47" t="n">
         <v>1.27</v>
       </c>
       <c r="T47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X47" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AA47" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC47" t="n">
         <v>9.25</v>
       </c>
       <c r="AD47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE47" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG47" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM47" t="n">
         <v>45</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>50</v>
-      </c>
       <c r="AN47" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AP47" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AR47" t="n">
         <v>37</v>
@@ -8990,31 +8988,31 @@
         <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AV47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AX47" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AY47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AZ47" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BA47" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="BB47" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC47" t="n">
         <v>51</v>
@@ -9058,142 +9056,142 @@
         <v>1.16</v>
       </c>
       <c r="H48" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="I48" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="J48" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K48" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="L48" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O48" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="P48" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="R48" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="S48" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="T48" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="V48" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W48" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="X48" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AA48" t="n">
         <v>10</v>
       </c>
       <c r="AB48" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC48" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>175</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>800</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ48" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>600</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>175</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>10.25</v>
-      </c>
       <c r="AR48" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AV48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AY48" t="n">
         <v>60</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>50</v>
       </c>
       <c r="AZ48" t="n">
         <v>500</v>
       </c>
       <c r="BA48" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BB48" t="n">
         <v>500</v>
@@ -9233,22 +9231,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I49" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J49" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="K49" t="n">
         <v>2.95</v>
       </c>
       <c r="L49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.02</v>
@@ -9257,28 +9255,28 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P49" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="R49" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="S49" t="n">
         <v>1.21</v>
       </c>
       <c r="T49" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="U49" t="n">
         <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W49" t="n">
         <v>9.25</v>
@@ -9287,7 +9285,7 @@
         <v>8.25</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z49" t="n">
         <v>8.5</v>
@@ -9299,10 +9297,10 @@
         <v>25</v>
       </c>
       <c r="AC49" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD49" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE49" t="n">
         <v>25</v>
@@ -9314,22 +9312,22 @@
         <v>600</v>
       </c>
       <c r="AH49" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI49" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ49" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AL49" t="n">
         <v>150</v>
       </c>
       <c r="AM49" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN49" t="n">
         <v>3.4</v>
@@ -9338,37 +9336,37 @@
         <v>5</v>
       </c>
       <c r="AP49" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AR49" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS49" t="n">
         <v>120</v>
       </c>
       <c r="AT49" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV49" t="n">
         <v>60</v>
       </c>
       <c r="AW49" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AX49" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AY49" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ49" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BA49" t="n">
         <v>300</v>
@@ -9421,19 +9419,19 @@
         <v>3.45</v>
       </c>
       <c r="I50" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K50" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L50" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="M50" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N50" t="n">
         <v>6.7</v>
@@ -9442,7 +9440,7 @@
         <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q50" t="n">
         <v>2.05</v>
@@ -9451,22 +9449,22 @@
         <v>1.7</v>
       </c>
       <c r="S50" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T50" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="U50" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V50" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W50" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X50" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y50" t="n">
         <v>8.25</v>
@@ -9478,22 +9476,22 @@
         <v>15</v>
       </c>
       <c r="AB50" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC50" t="n">
         <v>6.7</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF50" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG50" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH50" t="n">
         <v>11</v>
@@ -9502,7 +9500,7 @@
         <v>25</v>
       </c>
       <c r="AJ50" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK50" t="n">
         <v>80</v>
@@ -9511,10 +9509,10 @@
         <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO50" t="n">
         <v>8.5</v>
@@ -9523,7 +9521,7 @@
         <v>18.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR50" t="n">
         <v>65</v>
@@ -9532,16 +9530,16 @@
         <v>250</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV50" t="n">
         <v>75</v>
       </c>
       <c r="AW50" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AX50" t="n">
         <v>27</v>
@@ -9597,145 +9595,145 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>3.95</v>
       </c>
       <c r="H51" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I51" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="K51" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="L51" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N51" t="n">
-        <v>8.25</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P51" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="R51" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S51" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="T51" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="U51" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="V51" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="W51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>8.75</v>
       </c>
-      <c r="X51" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>35</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>9</v>
-      </c>
       <c r="AK51" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AL51" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AM51" t="n">
         <v>35</v>
       </c>
       <c r="AN51" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO51" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AP51" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AQ51" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AR51" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS51" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AT51" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="AU51" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV51" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW51" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="AX51" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AY51" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ51" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="BA51" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BB51" t="n">
         <v>300</v>
@@ -9779,28 +9777,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="H52" t="n">
         <v>2.77</v>
       </c>
       <c r="I52" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="J52" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K52" t="n">
         <v>1.83</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M52" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N52" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O52" t="n">
         <v>1.55</v>
@@ -9812,13 +9810,13 @@
         <v>2.57</v>
       </c>
       <c r="R52" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S52" t="n">
         <v>1.57</v>
       </c>
       <c r="T52" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U52" t="n">
         <v>2.1</v>
@@ -9827,47 +9825,47 @@
         <v>1.57</v>
       </c>
       <c r="W52" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="X52" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y52" t="n">
         <v>11</v>
       </c>
       <c r="Z52" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA52" t="n">
         <v>30</v>
       </c>
       <c r="AB52" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC52" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="AD52" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AE52" t="n">
         <v>19</v>
       </c>
       <c r="AF52" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ52" t="n">
         <v>11.25</v>
       </c>
       <c r="AK52" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL52" t="n">
         <v>32</v>
@@ -9876,13 +9874,13 @@
         <v>55</v>
       </c>
       <c r="AN52" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AO52" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ52" t="n">
         <v>80</v>
@@ -9903,7 +9901,7 @@
         <v>100</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="AX52" t="n">
         <v>16.5</v>
@@ -9915,7 +9913,7 @@
         <v>90</v>
       </c>
       <c r="BA52" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB52" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -807,31 +807,31 @@
         <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
@@ -849,22 +849,22 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -876,7 +876,7 @@
         <v>5.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
         <v>29</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -953,10 +953,10 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.5</v>
@@ -977,13 +977,13 @@
         <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X3" t="n">
         <v>8.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1058,7 +1058,7 @@
         <v>9</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY3" t="n">
         <v>34</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.8</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1126,7 +1126,7 @@
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1162,7 +1162,7 @@
         <v>17</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1192,10 +1192,10 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
         <v>11</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>12</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
@@ -1213,19 +1213,19 @@
         <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3.4</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
@@ -1258,7 +1258,7 @@
         <v>401</v>
       </c>
       <c r="BD4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1299,7 +1299,7 @@
         <v>5.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -1311,10 +1311,10 @@
         <v>1.67</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
         <v>1.1</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1523,16 +1523,16 @@
         <v>1.91</v>
       </c>
       <c r="W6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>8</v>
       </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA6" t="n">
         <v>13</v>
@@ -1556,16 +1556,16 @@
         <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
         <v>51</v>
@@ -1577,13 +1577,13 @@
         <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1595,25 +1595,25 @@
         <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX6" t="n">
         <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="n">
         <v>251</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K7" t="n">
         <v>2.4</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1729,7 +1729,7 @@
         <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1759,7 +1759,7 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
@@ -1795,16 +1795,16 @@
         <v>67</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>401</v>
       </c>
       <c r="BD7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>4.5</v>
@@ -1854,7 +1854,7 @@
         <v>2.6</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S8" t="n">
         <v>1.29</v>
@@ -1881,10 +1881,10 @@
         <v>3.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>9</v>
@@ -1911,7 +1911,7 @@
         <v>9</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>41</v>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
@@ -1959,7 +1959,7 @@
         <v>3.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1974,10 +1974,10 @@
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
         <v>201</v>
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
@@ -2218,13 +2218,13 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2236,7 +2236,7 @@
         <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S10" t="n">
         <v>1.53</v>
@@ -2245,19 +2245,19 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -2269,10 +2269,10 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -2296,16 +2296,16 @@
         <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2329,13 +2329,13 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
         <v>81</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
@@ -2415,13 +2415,13 @@
         <v>3.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="R11" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="S11" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T11" t="n">
         <v>2.75</v>
@@ -2570,7 +2570,7 @@
         <v>1.42</v>
       </c>
       <c r="H12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>7.5</v>
@@ -2591,31 +2591,31 @@
         <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
         <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
         <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
         <v>8</v>
@@ -2639,7 +2639,7 @@
         <v>9</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2648,7 +2648,7 @@
         <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
@@ -2660,7 +2660,7 @@
         <v>81</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2705,7 +2705,7 @@
         <v>101</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2767,22 +2767,22 @@
         <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2930,16 +2930,16 @@
         <v>1.08</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
         <v>21</v>
       </c>
       <c r="J14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>13</v>
@@ -2948,7 +2948,7 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>1.08</v>
@@ -2963,22 +2963,22 @@
         <v>3.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="T14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U14" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W14" t="n">
         <v>12</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y14" t="n">
         <v>13</v>
@@ -2993,16 +2993,16 @@
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="n">
         <v>101</v>
@@ -3014,7 +3014,7 @@
         <v>101</v>
       </c>
       <c r="AJ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK14" t="n">
         <v>351</v>
@@ -3026,25 +3026,25 @@
         <v>101</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO14" t="n">
         <v>4.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AR14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AU14" t="n">
         <v>11</v>
@@ -3059,16 +3059,16 @@
         <v>51</v>
       </c>
       <c r="AY14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ14" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB14" t="n">
         <v>251</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>301</v>
       </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -3120,13 +3120,13 @@
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3295,16 +3295,16 @@
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L16" t="n">
         <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3313,10 +3313,10 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>1.53</v>
@@ -3337,19 +3337,19 @@
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
         <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3364,7 +3364,7 @@
         <v>451</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3385,25 +3385,25 @@
         <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT16" t="n">
         <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
         <v>67</v>
@@ -3468,10 +3468,10 @@
         <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>4</v>
@@ -3480,7 +3480,7 @@
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="M17" t="n">
         <v>1.05</v>
@@ -3489,28 +3489,28 @@
         <v>11</v>
       </c>
       <c r="O17" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P17" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W17" t="n">
         <v>11</v>
@@ -3531,7 +3531,7 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
@@ -3552,16 +3552,16 @@
         <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN17" t="n">
         <v>5.5</v>
@@ -3582,7 +3582,7 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
         <v>7.5</v>
@@ -3600,13 +3600,13 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
         <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>501</v>
@@ -3647,7 +3647,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -3677,10 +3677,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="R18" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3829,7 +3829,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
@@ -4011,13 +4011,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
@@ -4199,7 +4199,7 @@
         <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
@@ -4375,19 +4375,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
         <v>3.2</v>
@@ -4405,10 +4405,10 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4510,7 +4510,7 @@
         <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
         <v>67</v>
@@ -4917,7 +4917,7 @@
         <v>5.25</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
         <v>1.8</v>
@@ -4926,7 +4926,7 @@
         <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4941,10 +4941,10 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R25" t="n">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="S25" t="n">
         <v>1.36</v>
@@ -4953,10 +4953,10 @@
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
@@ -4965,7 +4965,7 @@
         <v>5.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
         <v>7.5</v>
@@ -4983,16 +4983,16 @@
         <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG25" t="n">
         <v>101</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
@@ -5025,7 +5025,7 @@
         <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
         <v>3</v>
@@ -5046,7 +5046,7 @@
         <v>51</v>
       </c>
       <c r="AZ25" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BA25" t="n">
         <v>301</v>
@@ -5117,10 +5117,10 @@
         <v>2.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S26" t="n">
         <v>1.57</v>
@@ -5300,7 +5300,7 @@
         <v>2.5</v>
       </c>
       <c r="R27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S27" t="n">
         <v>1.53</v>
@@ -5449,28 +5449,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="K28" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L28" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -5479,10 +5479,10 @@
         <v>2.63</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R28" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S28" t="n">
         <v>1.53</v>
@@ -5497,19 +5497,19 @@
         <v>1.75</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB28" t="n">
         <v>41</v>
@@ -5530,40 +5530,40 @@
         <v>451</v>
       </c>
       <c r="AH28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT28" t="n">
         <v>2.38</v>
@@ -5575,10 +5575,10 @@
         <v>67</v>
       </c>
       <c r="AW28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX28" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY28" t="n">
         <v>29</v>
@@ -5631,22 +5631,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M29" t="n">
         <v>1.07</v>
@@ -5655,16 +5655,16 @@
         <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S29" t="n">
         <v>1.44</v>
@@ -5673,31 +5673,31 @@
         <v>2.63</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W29" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
         <v>6</v>
@@ -5709,31 +5709,31 @@
         <v>51</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>11</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK29" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AL29" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM29" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5757,19 +5757,19 @@
         <v>51</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB29" t="n">
         <v>201</v>
@@ -5813,28 +5813,28 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="L30" t="n">
         <v>8.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L30" t="n">
-        <v>8</v>
       </c>
       <c r="M30" t="n">
         <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O30" t="n">
         <v>1.17</v>
@@ -5843,10 +5843,10 @@
         <v>5</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S30" t="n">
         <v>1.29</v>
@@ -5861,7 +5861,7 @@
         <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X30" t="n">
         <v>7</v>
@@ -5870,7 +5870,7 @@
         <v>9</v>
       </c>
       <c r="Z30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA30" t="n">
         <v>11</v>
@@ -5894,19 +5894,19 @@
         <v>301</v>
       </c>
       <c r="AH30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM30" t="n">
         <v>51</v>
@@ -5927,7 +5927,7 @@
         <v>41</v>
       </c>
       <c r="AS30" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT30" t="n">
         <v>3.5</v>
@@ -5995,40 +5995,40 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.2</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L31" t="n">
         <v>3.6</v>
       </c>
       <c r="M31" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P31" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
         <v>1.44</v>
@@ -6037,31 +6037,31 @@
         <v>2.63</v>
       </c>
       <c r="U31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
         <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD31" t="n">
         <v>6</v>
@@ -6073,13 +6073,13 @@
         <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6097,19 +6097,19 @@
         <v>4.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR31" t="n">
         <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT31" t="n">
         <v>2.63</v>
@@ -6177,19 +6177,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
         <v>5.25</v>
       </c>
       <c r="J32" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K32" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L32" t="n">
         <v>5.5</v>
@@ -6201,16 +6201,16 @@
         <v>13</v>
       </c>
       <c r="O32" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6219,13 +6219,13 @@
         <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X32" t="n">
         <v>7.5</v>
@@ -6234,7 +6234,7 @@
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
@@ -6243,10 +6243,10 @@
         <v>26</v>
       </c>
       <c r="AC32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE32" t="n">
         <v>17</v>
@@ -6255,7 +6255,7 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH32" t="n">
         <v>15</v>
@@ -6285,13 +6285,13 @@
         <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
         <v>3</v>
@@ -6470,7 +6470,7 @@
         <v>21</v>
       </c>
       <c r="AR33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS33" t="n">
         <v>81</v>
@@ -6491,7 +6491,7 @@
         <v>26</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
         <v>81</v>
@@ -6541,22 +6541,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6571,16 +6571,16 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
         <v>1.67</v>
@@ -6589,7 +6589,7 @@
         <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X34" t="n">
         <v>19</v>
@@ -6625,13 +6625,13 @@
         <v>9</v>
       </c>
       <c r="AI34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>15</v>
@@ -6652,13 +6652,13 @@
         <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS34" t="n">
         <v>151</v>
       </c>
       <c r="AT34" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
@@ -6667,10 +6667,10 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY34" t="n">
         <v>19</v>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H35" t="n">
         <v>3.5</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -6738,25 +6738,25 @@
         <v>2.2</v>
       </c>
       <c r="L35" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P35" t="n">
         <v>3.75</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R35" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="S35" t="n">
         <v>1.36</v>
@@ -6777,7 +6777,7 @@
         <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z35" t="n">
         <v>34</v>
@@ -6789,7 +6789,7 @@
         <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD35" t="n">
         <v>6.5</v>
@@ -6801,7 +6801,7 @@
         <v>41</v>
       </c>
       <c r="AG35" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH35" t="n">
         <v>8.5</v>
@@ -6819,10 +6819,10 @@
         <v>17</v>
       </c>
       <c r="AM35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN35" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO35" t="n">
         <v>17</v>
@@ -6864,7 +6864,7 @@
         <v>51</v>
       </c>
       <c r="BB35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC35" t="inlineStr"/>
       <c r="BD35" t="inlineStr"/>
@@ -7081,40 +7081,40 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J37" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M37" t="n">
         <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
         <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7132,7 +7132,7 @@
         <v>8.5</v>
       </c>
       <c r="X37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
         <v>11</v>
@@ -7141,16 +7141,16 @@
         <v>29</v>
       </c>
       <c r="AA37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB37" t="n">
         <v>34</v>
       </c>
       <c r="AC37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD37" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -7165,7 +7165,7 @@
         <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
@@ -7207,16 +7207,16 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA37" t="n">
         <v>67</v>
@@ -7280,7 +7280,7 @@
         <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
         <v>1.22</v>
@@ -7289,10 +7289,10 @@
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="R38" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7358,7 +7358,7 @@
         <v>41</v>
       </c>
       <c r="AN38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO38" t="n">
         <v>7.5</v>
@@ -7379,7 +7379,7 @@
         <v>3</v>
       </c>
       <c r="AU38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV38" t="n">
         <v>51</v>
@@ -7437,19 +7437,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I39" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J39" t="n">
         <v>2.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
         <v>4</v>
@@ -7467,28 +7467,28 @@
         <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="R39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V39" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
@@ -7497,25 +7497,25 @@
         <v>17</v>
       </c>
       <c r="AA39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB39" t="n">
         <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
         <v>7</v>
       </c>
       <c r="AE39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH39" t="n">
         <v>15</v>
@@ -7530,55 +7530,55 @@
         <v>41</v>
       </c>
       <c r="AL39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM39" t="n">
         <v>29</v>
       </c>
-      <c r="AM39" t="n">
-        <v>34</v>
-      </c>
       <c r="AN39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO39" t="n">
         <v>10</v>
       </c>
       <c r="AP39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU39" t="n">
         <v>7.5</v>
       </c>
       <c r="AV39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW39" t="n">
         <v>6</v>
       </c>
       <c r="AX39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY39" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ39" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA39" t="n">
         <v>67</v>
       </c>
-      <c r="BA39" t="n">
-        <v>81</v>
-      </c>
       <c r="BB39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
@@ -8325,7 +8325,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="H44" t="n">
         <v>3.4</v>
@@ -8349,16 +8349,16 @@
         <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R44" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
         <v>1.4</v>
@@ -8507,22 +8507,22 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H45" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="K45" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="L45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.03</v>
@@ -8555,13 +8555,13 @@
         <v>1.7</v>
       </c>
       <c r="W45" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X45" t="n">
         <v>6.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z45" t="n">
         <v>7.5</v>
@@ -8573,10 +8573,10 @@
         <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE45" t="n">
         <v>23</v>
@@ -8615,7 +8615,7 @@
         <v>17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR45" t="n">
         <v>41</v>
@@ -8633,22 +8633,22 @@
         <v>67</v>
       </c>
       <c r="AW45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY45" t="n">
         <v>41</v>
       </c>
       <c r="AZ45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA45" t="n">
         <v>201</v>
       </c>
       <c r="BB45" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC45" t="n">
         <v>126</v>
@@ -8689,13 +8689,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="H46" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I46" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J46" t="n">
         <v>7</v>
@@ -8704,7 +8704,7 @@
         <v>2.75</v>
       </c>
       <c r="L46" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
@@ -8731,16 +8731,16 @@
         <v>3.75</v>
       </c>
       <c r="U46" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V46" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W46" t="n">
         <v>29</v>
       </c>
       <c r="X46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y46" t="n">
         <v>26</v>
@@ -8758,16 +8758,16 @@
         <v>19</v>
       </c>
       <c r="AD46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF46" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH46" t="n">
         <v>9.5</v>
@@ -8779,7 +8779,7 @@
         <v>8.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL46" t="n">
         <v>10</v>
@@ -8788,16 +8788,16 @@
         <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP46" t="n">
         <v>34</v>
       </c>
       <c r="AQ46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR46" t="n">
         <v>126</v>
@@ -8815,7 +8815,7 @@
         <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX46" t="n">
         <v>6</v>
@@ -8871,13 +8871,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="H47" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="I47" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J47" t="n">
         <v>1.91</v>
@@ -8895,28 +8895,28 @@
         <v>9.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P47" t="n">
-        <v>4.55</v>
+        <v>4.9</v>
       </c>
       <c r="Q47" t="n">
         <v>1.5</v>
       </c>
       <c r="R47" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="S47" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U47" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V47" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W47" t="n">
         <v>9.25</v>
@@ -8937,7 +8937,7 @@
         <v>19.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AD47" t="n">
         <v>9</v>
@@ -8970,49 +8970,49 @@
         <v>45</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AP47" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AR47" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AS47" t="n">
+        <v>120</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ47" t="n">
         <v>150</v>
       </c>
-      <c r="AT47" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>175</v>
-      </c>
       <c r="BA47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB47" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC47" t="n">
         <v>51</v>
@@ -9053,148 +9053,148 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="H48" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I48" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="J48" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="K48" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="L48" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
       </c>
       <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W48" t="n">
+        <v>11</v>
+      </c>
+      <c r="X48" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y48" t="n">
         <v>9.75</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T48" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W48" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="X48" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z48" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AA48" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AB48" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE48" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AF48" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AG48" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="AH48" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI48" t="n">
         <v>175</v>
       </c>
       <c r="AJ48" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>600</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV48" t="n">
         <v>50</v>
       </c>
-      <c r="AK48" t="n">
-        <v>800</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>250</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AP48" t="n">
+      <c r="AW48" t="n">
         <v>14</v>
       </c>
-      <c r="AQ48" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR48" t="n">
-        <v>30</v>
-      </c>
-      <c r="AS48" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT48" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AU48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV48" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW48" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AX48" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AY48" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AZ48" t="n">
         <v>500</v>
       </c>
       <c r="BA48" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BB48" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
@@ -9234,16 +9234,16 @@
         <v>1.2</v>
       </c>
       <c r="H49" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="I49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J49" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="K49" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="L49" t="n">
         <v>8.5</v>
@@ -9255,46 +9255,46 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P49" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="R49" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="S49" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="T49" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X49" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AA49" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB49" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AC49" t="n">
         <v>11.75</v>
@@ -9303,76 +9303,76 @@
         <v>15</v>
       </c>
       <c r="AE49" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF49" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK49" t="n">
         <v>600</v>
-      </c>
-      <c r="AH49" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ49" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="n">
-        <v>450</v>
       </c>
       <c r="AL49" t="n">
         <v>150</v>
       </c>
       <c r="AM49" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO49" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AP49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>110</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW49" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AQ49" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AR49" t="n">
-        <v>27</v>
-      </c>
-      <c r="AS49" t="n">
-        <v>120</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW49" t="n">
-        <v>12</v>
       </c>
       <c r="AX49" t="n">
         <v>60</v>
       </c>
       <c r="AY49" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ49" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BA49" t="n">
         <v>300</v>
       </c>
       <c r="BB49" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="BC49" t="n">
         <v>51</v>
@@ -9413,115 +9413,115 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="I50" t="n">
         <v>4.65</v>
       </c>
       <c r="J50" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="K50" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M50" t="n">
         <v>1.08</v>
       </c>
       <c r="N50" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="O50" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P50" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R50" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S50" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T50" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="U50" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V50" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W50" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y50" t="n">
         <v>8.25</v>
       </c>
       <c r="Z50" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AA50" t="n">
         <v>15</v>
       </c>
       <c r="AB50" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC50" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AE50" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AF50" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG50" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH50" t="n">
         <v>11</v>
       </c>
       <c r="AI50" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ50" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK50" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL50" t="n">
         <v>50</v>
       </c>
       <c r="AM50" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO50" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ50" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR50" t="n">
         <v>65</v>
@@ -9530,19 +9530,19 @@
         <v>250</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AV50" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW50" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX50" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY50" t="n">
         <v>32</v>
@@ -9777,10 +9777,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="H52" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="I52" t="n">
         <v>2.85</v>
@@ -9789,16 +9789,16 @@
         <v>3.4</v>
       </c>
       <c r="K52" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="L52" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
         <v>1.13</v>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="O52" t="n">
         <v>1.55</v>
@@ -9807,10 +9807,10 @@
         <v>2.15</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="R52" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S52" t="n">
         <v>1.57</v>
@@ -9825,13 +9825,13 @@
         <v>1.57</v>
       </c>
       <c r="W52" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X52" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y52" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z52" t="n">
         <v>32</v>
@@ -9840,29 +9840,29 @@
         <v>30</v>
       </c>
       <c r="AB52" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC52" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AD52" t="n">
         <v>5.6</v>
       </c>
       <c r="AE52" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF52" t="n">
         <v>120</v>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI52" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ52" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK52" t="n">
         <v>37</v>
@@ -9880,7 +9880,7 @@
         <v>15.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AQ52" t="n">
         <v>80</v>
@@ -9895,16 +9895,16 @@
         <v>2.07</v>
       </c>
       <c r="AU52" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV52" t="n">
         <v>100</v>
       </c>
       <c r="AW52" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX52" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AY52" t="n">
         <v>30</v>
@@ -9913,7 +9913,7 @@
         <v>90</v>
       </c>
       <c r="BA52" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB52" t="n">
         <v>500</v>
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="H53" t="n">
         <v>4.35</v>
@@ -10029,10 +10029,10 @@
         <v>8.75</v>
       </c>
       <c r="AE53" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF53" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG53" t="n">
         <v>700</v>
@@ -10050,13 +10050,13 @@
         <v>9.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM53" t="n">
         <v>26</v>
       </c>
       <c r="AN53" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AO53" t="n">
         <v>35</v>
@@ -10135,22 +10135,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="H54" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>4.7</v>
+        <v>4.35</v>
       </c>
       <c r="J54" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="K54" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="L54" t="n">
-        <v>4.8</v>
+        <v>4.55</v>
       </c>
       <c r="M54" t="n">
         <v>1.03</v>
@@ -10159,22 +10159,22 @@
         <v>9</v>
       </c>
       <c r="O54" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="S54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T54" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="U54" t="n">
         <v>1.65</v>
@@ -10186,16 +10186,16 @@
         <v>8.75</v>
       </c>
       <c r="X54" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Y54" t="n">
         <v>8.25</v>
       </c>
       <c r="Z54" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AA54" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AB54" t="n">
         <v>21</v>
@@ -10204,10 +10204,10 @@
         <v>9</v>
       </c>
       <c r="AD54" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF54" t="n">
         <v>55</v>
@@ -10216,61 +10216,61 @@
         <v>350</v>
       </c>
       <c r="AH54" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AI54" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO54" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU54" t="n">
         <v>7.2</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>7.3</v>
       </c>
       <c r="AV54" t="n">
         <v>55</v>
       </c>
       <c r="AW54" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="AX54" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AY54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ54" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BA54" t="n">
         <v>150</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H2" t="n">
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J2" t="n">
         <v>2.75</v>
@@ -762,13 +762,13 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -798,7 +798,7 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -849,10 +849,10 @@
         <v>4</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J3" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K3" t="n">
         <v>2.63</v>
       </c>
       <c r="L3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -959,10 +959,10 @@
         <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -971,28 +971,28 @@
         <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>51</v>
@@ -1010,25 +1010,25 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI3" t="n">
         <v>51</v>
       </c>
       <c r="AJ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL3" t="n">
         <v>67</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO3" t="n">
         <v>6</v>
@@ -1037,7 +1037,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>34</v>
@@ -1049,28 +1049,28 @@
         <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AX3" t="n">
         <v>41</v>
       </c>
       <c r="AY3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC3" t="n">
         <v>501</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.03</v>
@@ -1153,28 +1153,28 @@
         <v>3.4</v>
       </c>
       <c r="U4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
         <v>15</v>
@@ -1192,16 +1192,16 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL4" t="n">
         <v>15</v>
@@ -1210,43 +1210,43 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP4" t="n">
         <v>21</v>
       </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
         <v>3.4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV4" t="n">
         <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY4" t="n">
         <v>17</v>
       </c>
       <c r="AZ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
         <v>41</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="J5" t="n">
         <v>7</v>
@@ -1308,7 +1308,7 @@
         <v>2.88</v>
       </c>
       <c r="L5" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="M5" t="n">
         <v>1.02</v>
@@ -1323,10 +1323,10 @@
         <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="S5" t="n">
         <v>1.2</v>
@@ -1335,10 +1335,10 @@
         <v>4.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V5" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W5" t="n">
         <v>34</v>
@@ -1347,10 +1347,10 @@
         <v>51</v>
       </c>
       <c r="Y5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA5" t="n">
         <v>51</v>
@@ -1362,25 +1362,25 @@
         <v>23</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK5" t="n">
         <v>11</v>
@@ -1392,10 +1392,10 @@
         <v>21</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP5" t="n">
         <v>34</v>
@@ -1413,13 +1413,13 @@
         <v>4.33</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>41</v>
       </c>
       <c r="AW5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1428,7 +1428,7 @@
         <v>13</v>
       </c>
       <c r="AZ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA5" t="n">
         <v>29</v>
@@ -1478,55 +1478,55 @@
         <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X6" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
@@ -1535,25 +1535,25 @@
         <v>11</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
         <v>21</v>
@@ -1562,7 +1562,7 @@
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
         <v>81</v>
@@ -1571,10 +1571,10 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1583,16 +1583,16 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
       </c>
       <c r="AS6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>8.5</v>
@@ -1610,19 +1610,19 @@
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>126</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
         <v>4.5</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
         <v>13</v>
@@ -1738,7 +1738,7 @@
         <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>29</v>
@@ -1750,7 +1750,7 @@
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
@@ -1762,16 +1762,16 @@
         <v>8.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT7" t="n">
         <v>3.5</v>
@@ -1786,10 +1786,10 @@
         <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>67</v>
@@ -1801,7 +1801,7 @@
         <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD7" t="n">
         <v>160</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K8" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
         <v>1.14</v>
@@ -1869,16 +1869,16 @@
         <v>5.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U8" t="n">
         <v>1.75</v>
@@ -1890,13 +1890,13 @@
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA8" t="n">
         <v>11</v>
@@ -1908,16 +1908,16 @@
         <v>17</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
         <v>23</v>
@@ -1926,7 +1926,7 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
         <v>81</v>
@@ -1947,16 +1947,16 @@
         <v>15</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS8" t="n">
         <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
         <v>8.5</v>
@@ -1965,7 +1965,7 @@
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX8" t="n">
         <v>34</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2039,22 +2039,22 @@
         <v>2.88</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="R9" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2075,7 +2075,7 @@
         <v>17</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z9" t="n">
         <v>34</v>
@@ -2105,10 +2105,10 @@
         <v>9</v>
       </c>
       <c r="AI9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK9" t="n">
         <v>21</v>
@@ -2150,7 +2150,7 @@
         <v>4.33</v>
       </c>
       <c r="AX9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
         <v>21</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2236,7 +2236,7 @@
         <v>2.35</v>
       </c>
       <c r="R10" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="S10" t="n">
         <v>1.53</v>
@@ -2251,25 +2251,25 @@
         <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
         <v>17</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2284,25 +2284,25 @@
         <v>501</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
         <v>11</v>
@@ -2338,13 +2338,13 @@
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2409,16 +2409,16 @@
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.97</v>
+        <v>2.05</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="S11" t="n">
         <v>1.4</v>
@@ -2567,22 +2567,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L12" t="n">
         <v>7.5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2591,124 +2591,124 @@
         <v>17</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
         <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
         <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA12" t="n">
         <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS12" t="n">
         <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC12" t="n">
         <v>501</v>
@@ -2764,25 +2764,25 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2824,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
@@ -2878,7 +2878,7 @@
         <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -2927,91 +2927,91 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J14" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M14" t="n">
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="O14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="P14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="R14" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="T14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
       </c>
       <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
         <v>34</v>
       </c>
-      <c r="AC14" t="n">
-        <v>23</v>
-      </c>
       <c r="AD14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG14" t="n">
-        <v>101</v>
+        <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -3026,51 +3026,53 @@
         <v>101</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AP14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ14" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
       </c>
       <c r="AS14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU14" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AX14" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AY14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB14" t="n">
         <v>301</v>
       </c>
-      <c r="BA14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
         <v>251</v>
       </c>
-      <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3105,28 +3107,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L15" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
@@ -3135,10 +3137,10 @@
         <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3153,7 +3155,7 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -3183,13 +3185,13 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH15" t="n">
         <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
@@ -3207,7 +3209,7 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
@@ -3234,7 +3236,7 @@
         <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3246,7 +3248,7 @@
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3286,16 +3288,16 @@
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
         <v>3.25</v>
@@ -3313,10 +3315,10 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
         <v>1.53</v>
@@ -3337,19 +3339,19 @@
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6</v>
@@ -3364,7 +3366,7 @@
         <v>451</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
@@ -3379,31 +3381,31 @@
         <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
         <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
         <v>29</v>
       </c>
       <c r="AQ16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT16" t="n">
         <v>2.38</v>
       </c>
       <c r="AU16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV16" t="n">
         <v>67</v>
@@ -3465,28 +3467,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3495,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3516,19 +3518,19 @@
         <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
         <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
         <v>26</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -3546,16 +3548,16 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
         <v>10</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL17" t="n">
         <v>15</v>
@@ -3573,7 +3575,7 @@
         <v>26</v>
       </c>
       <c r="AQ17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
         <v>81</v>
@@ -3591,7 +3593,7 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
         <v>11</v>
@@ -3600,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA17" t="n">
         <v>51</v>
@@ -3647,7 +3649,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
         <v>3.7</v>
@@ -3677,10 +3679,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3829,7 +3831,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H19" t="n">
         <v>3.2</v>
@@ -4011,13 +4013,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
@@ -4193,13 +4195,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
@@ -4217,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.08</v>
@@ -4375,13 +4377,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J22" t="n">
         <v>3.25</v>
@@ -4405,10 +4407,10 @@
         <v>3.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -5120,7 +5122,7 @@
         <v>2.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S26" t="n">
         <v>1.57</v>
@@ -5285,10 +5287,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -5297,10 +5299,10 @@
         <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="R27" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>1.53</v>
@@ -5995,28 +5997,28 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>3.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K31" t="n">
         <v>2.05</v>
       </c>
       <c r="L31" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M31" t="n">
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.36</v>
@@ -6043,19 +6045,19 @@
         <v>1.91</v>
       </c>
       <c r="W31" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X31" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y31" t="n">
         <v>11</v>
       </c>
-      <c r="Y31" t="n">
-        <v>10</v>
-      </c>
       <c r="Z31" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA31" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB31" t="n">
         <v>34</v>
@@ -6076,37 +6078,37 @@
         <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AL31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM31" t="n">
         <v>34</v>
       </c>
       <c r="AN31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ31" t="n">
         <v>51</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS31" t="n">
         <v>201</v>
@@ -6121,19 +6123,19 @@
         <v>51</v>
       </c>
       <c r="AW31" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AX31" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>26</v>
       </c>
       <c r="AZ31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB31" t="n">
         <v>201</v>
@@ -6177,22 +6179,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I32" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.04</v>
@@ -6207,10 +6209,10 @@
         <v>3.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S32" t="n">
         <v>1.36</v>
@@ -6228,25 +6230,25 @@
         <v>7.5</v>
       </c>
       <c r="X32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y32" t="n">
         <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA32" t="n">
         <v>13</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
         <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE32" t="n">
         <v>17</v>
@@ -6258,13 +6260,13 @@
         <v>251</v>
       </c>
       <c r="AH32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>15</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>17</v>
       </c>
       <c r="AK32" t="n">
         <v>51</v>
@@ -6276,16 +6278,16 @@
         <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP32" t="n">
         <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR32" t="n">
         <v>41</v>
@@ -6297,34 +6299,34 @@
         <v>3</v>
       </c>
       <c r="AU32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
       </c>
       <c r="AW32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY32" t="n">
         <v>29</v>
       </c>
-      <c r="AY32" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ32" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA32" t="n">
         <v>101</v>
       </c>
-      <c r="BA32" t="n">
-        <v>126</v>
-      </c>
       <c r="BB32" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC32" t="n">
         <v>126</v>
       </c>
       <c r="BD32" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
@@ -6362,7 +6364,7 @@
         <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I33" t="n">
         <v>5.25</v>
@@ -6425,7 +6427,7 @@
         <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD33" t="n">
         <v>9.5</v>
@@ -6437,10 +6439,10 @@
         <v>41</v>
       </c>
       <c r="AG33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
         <v>34</v>
@@ -6491,7 +6493,7 @@
         <v>26</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
         <v>81</v>
@@ -6503,7 +6505,7 @@
         <v>151</v>
       </c>
       <c r="BC33" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD33" t="n">
         <v>151</v>
@@ -6541,22 +6543,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J34" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
         <v>2.25</v>
       </c>
       <c r="L34" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M34" t="n">
         <v>1.04</v>
@@ -6571,16 +6573,16 @@
         <v>4</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R34" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U34" t="n">
         <v>1.67</v>
@@ -6589,16 +6591,16 @@
         <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
         <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA34" t="n">
         <v>26</v>
@@ -6607,10 +6609,10 @@
         <v>29</v>
       </c>
       <c r="AC34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE34" t="n">
         <v>13</v>
@@ -6625,16 +6627,16 @@
         <v>9</v>
       </c>
       <c r="AI34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL34" t="n">
         <v>17</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>15</v>
       </c>
       <c r="AM34" t="n">
         <v>23</v>
@@ -6643,7 +6645,7 @@
         <v>5.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP34" t="n">
         <v>23</v>
@@ -6652,13 +6654,13 @@
         <v>51</v>
       </c>
       <c r="AR34" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS34" t="n">
         <v>151</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
@@ -6667,16 +6669,16 @@
         <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6723,13 +6725,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J35" t="n">
         <v>3.75</v>
@@ -6741,13 +6743,13 @@
         <v>2.75</v>
       </c>
       <c r="M35" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O35" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P35" t="n">
         <v>3.75</v>
@@ -6783,7 +6785,7 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB35" t="n">
         <v>29</v>
@@ -6792,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="AD35" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE35" t="n">
         <v>13</v>
@@ -6813,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL35" t="n">
         <v>17</v>
@@ -6825,10 +6827,10 @@
         <v>5.5</v>
       </c>
       <c r="AO35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ35" t="n">
         <v>51</v>
@@ -6852,7 +6854,7 @@
         <v>4.33</v>
       </c>
       <c r="AX35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY35" t="n">
         <v>21</v>
@@ -7081,31 +7083,31 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H37" t="n">
         <v>3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J37" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K37" t="n">
         <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
         <v>8.5</v>
       </c>
       <c r="O37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -7114,7 +7116,7 @@
         <v>2.1</v>
       </c>
       <c r="R37" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S37" t="n">
         <v>1.44</v>
@@ -7165,7 +7167,7 @@
         <v>7.5</v>
       </c>
       <c r="AI37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
@@ -7259,40 +7261,40 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J38" t="n">
         <v>2.05</v>
       </c>
       <c r="K38" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L38" t="n">
         <v>6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P38" t="n">
         <v>3.75</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="R38" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S38" t="n">
         <v>1.36</v>
@@ -7301,22 +7303,22 @@
         <v>3</v>
       </c>
       <c r="U38" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W38" t="n">
         <v>7</v>
       </c>
       <c r="X38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA38" t="n">
         <v>12</v>
@@ -7328,10 +7330,10 @@
         <v>12</v>
       </c>
       <c r="AD38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF38" t="n">
         <v>51</v>
@@ -7343,7 +7345,7 @@
         <v>15</v>
       </c>
       <c r="AI38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
         <v>19</v>
@@ -7367,7 +7369,7 @@
         <v>19</v>
       </c>
       <c r="AQ38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
@@ -7391,13 +7393,13 @@
         <v>34</v>
       </c>
       <c r="AY38" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ38" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA38" t="n">
         <v>126</v>
-      </c>
-      <c r="BA38" t="n">
-        <v>151</v>
       </c>
       <c r="BB38" t="n">
         <v>251</v>
@@ -7437,37 +7439,37 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H39" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K39" t="n">
         <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
         <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
         <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
         <v>2.25</v>
@@ -7488,13 +7490,13 @@
         <v>9.5</v>
       </c>
       <c r="X39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA39" t="n">
         <v>13</v>
@@ -7506,10 +7508,10 @@
         <v>15</v>
       </c>
       <c r="AD39" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF39" t="n">
         <v>41</v>
@@ -7521,7 +7523,7 @@
         <v>15</v>
       </c>
       <c r="AI39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ39" t="n">
         <v>13</v>
@@ -7530,16 +7532,16 @@
         <v>41</v>
       </c>
       <c r="AL39" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN39" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP39" t="n">
         <v>17</v>
@@ -7566,19 +7568,19 @@
         <v>6</v>
       </c>
       <c r="AX39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY39" t="n">
         <v>23</v>
       </c>
       <c r="AZ39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA39" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB39" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC39" t="inlineStr"/>
       <c r="BD39" t="inlineStr"/>
@@ -8325,16 +8327,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I44" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K44" t="n">
         <v>2.2</v>
@@ -8343,10 +8345,10 @@
         <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O44" t="n">
         <v>1.25</v>
@@ -8355,43 +8357,43 @@
         <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V44" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W44" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X44" t="n">
         <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA44" t="n">
         <v>15</v>
       </c>
       <c r="AB44" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD44" t="n">
         <v>6.5</v>
@@ -8403,7 +8405,7 @@
         <v>41</v>
       </c>
       <c r="AG44" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH44" t="n">
         <v>12</v>
@@ -8433,19 +8435,19 @@
         <v>21</v>
       </c>
       <c r="AQ44" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR44" t="n">
         <v>51</v>
       </c>
       <c r="AS44" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV44" t="n">
         <v>51</v>
@@ -8507,10 +8509,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H45" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
         <v>13</v>
@@ -8555,13 +8557,13 @@
         <v>1.7</v>
       </c>
       <c r="W45" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X45" t="n">
         <v>6.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z45" t="n">
         <v>7.5</v>
@@ -8576,7 +8578,7 @@
         <v>15</v>
       </c>
       <c r="AD45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE45" t="n">
         <v>23</v>
@@ -8588,13 +8590,13 @@
         <v>401</v>
       </c>
       <c r="AH45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI45" t="n">
         <v>51</v>
       </c>
       <c r="AJ45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK45" t="n">
         <v>151</v>
@@ -8645,7 +8647,7 @@
         <v>251</v>
       </c>
       <c r="BA45" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB45" t="n">
         <v>401</v>
@@ -8689,46 +8691,46 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="H46" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I46" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K46" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L46" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="M46" t="n">
         <v>1.02</v>
       </c>
       <c r="N46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O46" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P46" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
         <v>1.75</v>
@@ -8737,28 +8739,28 @@
         <v>2</v>
       </c>
       <c r="W46" t="n">
+        <v>34</v>
+      </c>
+      <c r="X46" t="n">
+        <v>51</v>
+      </c>
+      <c r="Y46" t="n">
         <v>29</v>
       </c>
-      <c r="X46" t="n">
-        <v>51</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>26</v>
-      </c>
       <c r="Z46" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB46" t="n">
         <v>51</v>
       </c>
       <c r="AC46" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE46" t="n">
         <v>19</v>
@@ -8770,16 +8772,16 @@
         <v>201</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI46" t="n">
         <v>8</v>
       </c>
       <c r="AJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK46" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>9</v>
       </c>
       <c r="AL46" t="n">
         <v>10</v>
@@ -8788,28 +8790,28 @@
         <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AO46" t="n">
         <v>41</v>
       </c>
       <c r="AP46" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ46" t="n">
         <v>151</v>
       </c>
       <c r="AR46" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AS46" t="n">
         <v>201</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU46" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV46" t="n">
         <v>51</v>
@@ -8818,16 +8820,16 @@
         <v>3.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY46" t="n">
         <v>15</v>
       </c>
       <c r="AZ46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB46" t="n">
         <v>81</v>
@@ -9957,22 +9959,22 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>6.1</v>
+        <v>8.25</v>
       </c>
       <c r="H53" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="I53" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="J53" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="K53" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L53" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="M53" t="n">
         <v>1.04</v>
@@ -9981,121 +9983,121 @@
         <v>8.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P53" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R53" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S53" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T53" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U53" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="V53" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W53" t="n">
-        <v>17.5</v>
+        <v>22</v>
       </c>
       <c r="X53" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="Y53" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Z53" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="AA53" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AB53" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AC53" t="n">
         <v>8.5</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF53" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG53" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH53" t="n">
         <v>7.3</v>
       </c>
       <c r="AI53" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AJ53" t="n">
         <v>8.25</v>
       </c>
       <c r="AK53" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AL53" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN53" t="n">
-        <v>7.7</v>
+        <v>9.25</v>
       </c>
       <c r="AO53" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="AP53" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AQ53" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AR53" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AS53" t="n">
         <v>500</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU53" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV53" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW53" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AX53" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AY53" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ53" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="BA53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB53" t="n">
         <v>200</v>
@@ -10135,103 +10137,103 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K54" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L54" t="n">
-        <v>4.55</v>
+        <v>5.1</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O54" t="n">
         <v>1.2</v>
       </c>
       <c r="P54" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q54" t="n">
         <v>1.6</v>
       </c>
       <c r="R54" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="S54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T54" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="U54" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V54" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="W54" t="n">
         <v>8.75</v>
       </c>
       <c r="X54" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Y54" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="Z54" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA54" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB54" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AE54" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF54" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG54" t="n">
         <v>350</v>
       </c>
       <c r="AH54" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI54" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AJ54" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK54" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AL54" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AM54" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN54" t="n">
         <v>3.65</v>
@@ -10240,7 +10242,7 @@
         <v>7.6</v>
       </c>
       <c r="AP54" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AQ54" t="n">
         <v>23</v>
@@ -10249,34 +10251,34 @@
         <v>45</v>
       </c>
       <c r="AS54" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="AU54" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV54" t="n">
         <v>55</v>
       </c>
       <c r="AW54" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AX54" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AY54" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AZ54" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="BA54" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BB54" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC54" t="inlineStr"/>
       <c r="BD54" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
         <v>2.5</v>
@@ -1499,16 +1499,16 @@
         <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S6" t="n">
         <v>1.29</v>
@@ -1523,28 +1523,28 @@
         <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
         <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>12</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
         <v>19</v>
@@ -1571,10 +1571,10 @@
         <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>7</v>
@@ -1583,7 +1583,7 @@
         <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>41</v>
@@ -1595,7 +1595,7 @@
         <v>3.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,7 +1604,7 @@
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
@@ -1613,7 +1613,7 @@
         <v>101</v>
       </c>
       <c r="BA6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -1687,10 +1687,10 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.29</v>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.6</v>
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="S9" t="n">
         <v>1.36</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="AM9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN9" t="n">
         <v>5</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -2245,10 +2245,10 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W10" t="n">
         <v>5.5</v>
@@ -2275,22 +2275,22 @@
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="n">
         <v>501</v>
       </c>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2305,13 +2305,13 @@
         <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2323,16 +2323,16 @@
         <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
@@ -2350,7 +2350,7 @@
         <v>126</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
@@ -2385,94 +2385,94 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J11" t="n">
         <v>1.95</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
+        <v>5</v>
+      </c>
+      <c r="X11" t="n">
         <v>5.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>6</v>
-      </c>
       <c r="Y11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z11" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
         <v>9</v>
       </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>501</v>
       </c>
       <c r="AH11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
@@ -2484,13 +2484,13 @@
         <v>67</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO11" t="n">
         <v>7</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>21</v>
@@ -2499,31 +2499,31 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX11" t="n">
         <v>41</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2532,7 +2532,7 @@
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
@@ -2749,13 +2749,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J13" t="n">
         <v>2.25</v>
@@ -2764,25 +2764,25 @@
         <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2791,16 +2791,16 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2824,16 +2824,16 @@
         <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
         <v>15</v>
@@ -2845,7 +2845,7 @@
         <v>34</v>
       </c>
       <c r="AM13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>3.75</v>
@@ -2854,7 +2854,7 @@
         <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
         <v>26</v>
@@ -2863,7 +2863,7 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
         <v>3.25</v>
@@ -2878,7 +2878,7 @@
         <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
         <v>29</v>
@@ -2887,10 +2887,10 @@
         <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
         <v>1.22</v>
@@ -2957,10 +2957,10 @@
         <v>11</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="R14" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="S14" t="n">
         <v>1.1</v>
@@ -2975,43 +2975,43 @@
         <v>1.57</v>
       </c>
       <c r="W14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA14" t="n">
         <v>12</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>34</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
         <v>34</v>
       </c>
       <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH14" t="n">
         <v>67</v>
       </c>
-      <c r="AG14" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>81</v>
-      </c>
       <c r="AI14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
@@ -3020,10 +3020,10 @@
         <v>351</v>
       </c>
       <c r="AL14" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AM14" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AN14" t="n">
         <v>4</v>
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.07</v>
@@ -3155,10 +3155,10 @@
         <v>1.83</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
         <v>12</v>
@@ -3167,10 +3167,10 @@
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="n">
         <v>9</v>
@@ -3188,16 +3188,16 @@
         <v>301</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
@@ -3209,13 +3209,13 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>29</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR15" t="n">
         <v>81</v>
@@ -3233,10 +3233,10 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>23</v>
@@ -3248,7 +3248,7 @@
         <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3288,73 +3288,73 @@
         <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N16" t="n">
+        <v>6</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W16" t="n">
         <v>7</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7.5</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA16" t="n">
         <v>29</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
@@ -3363,58 +3363,58 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI16" t="n">
         <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
         <v>4.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
         <v>101</v>
       </c>
       <c r="AS16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
         <v>29</v>
@@ -3423,10 +3423,10 @@
         <v>51</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
@@ -3467,13 +3467,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -3497,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3509,10 +3509,10 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V17" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
         <v>11</v>
@@ -3521,13 +3521,13 @@
         <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
@@ -3539,28 +3539,28 @@
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
         <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
         <v>8.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM17" t="n">
         <v>23</v>
@@ -3569,16 +3569,16 @@
         <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>51</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
         <v>151</v>
@@ -3596,7 +3596,7 @@
         <v>4.33</v>
       </c>
       <c r="AX17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>21</v>
@@ -3649,13 +3649,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
         <v>2.5</v>
@@ -3664,7 +3664,7 @@
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.05</v>
@@ -3679,10 +3679,10 @@
         <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3700,7 +3700,7 @@
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3715,25 +3715,25 @@
         <v>26</v>
       </c>
       <c r="AC18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
         <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
         <v>13</v>
@@ -3748,7 +3748,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
         <v>10</v>
@@ -3778,7 +3778,7 @@
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>29</v>
@@ -3861,10 +3861,10 @@
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
         <v>1.5</v>
@@ -4013,13 +4013,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J20" t="n">
         <v>3.5</v>
@@ -4154,7 +4154,7 @@
         <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4225,10 +4225,10 @@
         <v>3.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4377,40 +4377,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H22" t="n">
         <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
         <v>3.2</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4419,10 +4419,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>9.5</v>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4443,10 +4443,10 @@
         <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4497,13 +4497,13 @@
         <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX22" t="n">
         <v>15</v>
@@ -4512,7 +4512,7 @@
         <v>23</v>
       </c>
       <c r="AZ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
         <v>67</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -2203,13 +2203,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.5</v>
@@ -2245,10 +2245,10 @@
         <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
         <v>5.5</v>
@@ -2287,7 +2287,7 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>17</v>
@@ -2311,7 +2311,7 @@
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H11" t="n">
         <v>4.33</v>
       </c>
       <c r="I11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2409,16 +2409,16 @@
         <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2427,37 +2427,37 @@
         <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF11" t="n">
         <v>101</v>
@@ -2472,7 +2472,7 @@
         <v>41</v>
       </c>
       <c r="AJ11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
         <v>101</v>
@@ -2499,13 +2499,13 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>81</v>
@@ -2520,10 +2520,10 @@
         <v>51</v>
       </c>
       <c r="AZ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA11" t="n">
         <v>251</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>301</v>
       </c>
       <c r="BB11" t="n">
         <v>501</v>
@@ -2532,7 +2532,7 @@
         <v>126</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -3107,40 +3107,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>1.44</v>
@@ -3149,31 +3149,31 @@
         <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y15" t="n">
         <v>9.5</v>
       </c>
-      <c r="X15" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>12</v>
-      </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
         <v>29</v>
       </c>
-      <c r="AB15" t="n">
-        <v>41</v>
-      </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3185,43 +3185,43 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
         <v>67</v>
       </c>
-      <c r="AR15" t="n">
-        <v>81</v>
-      </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
         <v>2.63</v>
@@ -3233,22 +3233,22 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3467,28 +3467,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J17" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.2</v>
       </c>
       <c r="L17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>1.25</v>
@@ -3497,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
         <v>1.36</v>
@@ -3548,7 +3548,7 @@
         <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -3566,7 +3566,7 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO17" t="n">
         <v>17</v>
@@ -3649,28 +3649,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3691,25 +3691,25 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W18" t="n">
         <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
         <v>26</v>
@@ -3730,34 +3730,34 @@
         <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL18" t="n">
         <v>41</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3769,28 +3769,28 @@
         <v>2.75</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>126</v>
@@ -3831,34 +3831,34 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J19" t="n">
         <v>3.2</v>
       </c>
-      <c r="I19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L19" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q19" t="n">
         <v>2.15</v>
@@ -3867,28 +3867,28 @@
         <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X19" t="n">
         <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
         <v>21</v>
@@ -3897,7 +3897,7 @@
         <v>34</v>
       </c>
       <c r="AC19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD19" t="n">
         <v>6</v>
@@ -3912,34 +3912,34 @@
         <v>301</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM19" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN19" t="n">
         <v>4.33</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
         <v>26</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
         <v>67</v>
@@ -3948,31 +3948,31 @@
         <v>201</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU19" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA19" t="n">
         <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
         <v>126</v>
@@ -4013,22 +4013,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="J20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L20" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.2</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4043,10 +4043,10 @@
         <v>3.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4061,22 +4061,22 @@
         <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
         <v>29</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>34</v>
       </c>
       <c r="AC20" t="n">
         <v>9</v>
@@ -4085,7 +4085,7 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
         <v>51</v>
@@ -4094,37 +4094,37 @@
         <v>251</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL20" t="n">
         <v>23</v>
       </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>51</v>
       </c>
       <c r="AR20" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4139,22 +4139,22 @@
         <v>51</v>
       </c>
       <c r="AW20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
         <v>51</v>
       </c>
       <c r="BA20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4195,13 +4195,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J21" t="n">
         <v>4.33</v>
@@ -4210,25 +4210,25 @@
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4237,13 +4237,13 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X21" t="n">
         <v>19</v>
@@ -4255,16 +4255,16 @@
         <v>41</v>
       </c>
       <c r="AA21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB21" t="n">
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>15</v>
@@ -4273,19 +4273,19 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL21" t="n">
         <v>17</v>
@@ -4309,7 +4309,7 @@
         <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
         <v>2.63</v>
@@ -4324,16 +4324,16 @@
         <v>4</v>
       </c>
       <c r="AX21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
         <v>151</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I22" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J22" t="n">
         <v>3.4</v>
@@ -4392,7 +4392,7 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
@@ -4407,10 +4407,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4425,7 +4425,7 @@
         <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X22" t="n">
         <v>13</v>
@@ -4434,7 +4434,7 @@
         <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -5089,13 +5089,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H26" t="n">
         <v>2.8</v>
       </c>
       <c r="I26" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
         <v>3.5</v>
@@ -5107,10 +5107,10 @@
         <v>3.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
         <v>1.5</v>
@@ -5137,10 +5137,10 @@
         <v>1.67</v>
       </c>
       <c r="W26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -5155,7 +5155,7 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
         <v>5.5</v>
@@ -5192,7 +5192,7 @@
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ26" t="n">
         <v>51</v>
@@ -5210,25 +5210,25 @@
         <v>9</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW26" t="n">
         <v>4.75</v>
       </c>
       <c r="AX26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY26" t="n">
         <v>34</v>
       </c>
       <c r="AZ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA26" t="n">
         <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC26" t="n">
         <v>126</v>
@@ -5269,16 +5269,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K27" t="n">
         <v>1.95</v>
@@ -5332,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="AB27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
@@ -5371,7 +5371,7 @@
         <v>4.33</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-04.xlsx
@@ -4216,7 +4216,7 @@
         <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
         <v>1.33</v>
@@ -4225,10 +4225,10 @@
         <v>3.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -5269,28 +5269,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>1.95</v>
       </c>
       <c r="L27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -5299,10 +5299,10 @@
         <v>2.63</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S27" t="n">
         <v>1.53</v>
@@ -5317,22 +5317,22 @@
         <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
@@ -5350,28 +5350,28 @@
         <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>29</v>
@@ -5395,16 +5395,16 @@
         <v>67</v>
       </c>
       <c r="AW27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA27" t="n">
         <v>101</v>
